--- a/Test/Testeo.xlsx
+++ b/Test/Testeo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7209" uniqueCount="2095">
   <si>
     <t>Nombre</t>
   </si>
@@ -6658,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1907" workbookViewId="0">
-      <selection activeCell="A1926" sqref="A1926"/>
+    <sheetView tabSelected="1" topLeftCell="A1787" workbookViewId="0">
+      <selection activeCell="K1811" sqref="K1811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61735,5136 +61735,5670 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1750" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1750" s="3" t="s">
+    <row r="1750" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1750" s="5" t="s">
         <v>1802</v>
       </c>
-      <c r="B1750" t="s">
+      <c r="B1750" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1750" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1750">
-        <v>0.9</v>
-      </c>
-      <c r="E1750">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1750">
-        <v>1</v>
-      </c>
-      <c r="G1750">
-        <v>1</v>
-      </c>
-      <c r="H1750">
-        <v>0.9</v>
-      </c>
-      <c r="I1750">
+      <c r="C1750" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1750" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1750" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1750" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1750" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1750" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1750" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1751" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1751" s="3" t="s">
+    <row r="1751" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1751" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="B1751" t="s">
+      <c r="B1751" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1751" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1751">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1751">
+      <c r="C1751" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1751" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1751" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1751">
-        <v>0.95</v>
-      </c>
-      <c r="G1751">
-        <v>1</v>
-      </c>
-      <c r="H1751">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1751">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1752" s="3" t="s">
+      <c r="F1751" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1751" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1751" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1751" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1752" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="B1752" t="s">
+      <c r="B1752" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1752" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1752">
-        <v>1</v>
-      </c>
-      <c r="E1752">
+      <c r="C1752" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1752" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1752" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1752">
-        <v>1</v>
-      </c>
-      <c r="G1752">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1752">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1752">
+      <c r="F1752" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1752" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1752" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1752" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1753" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1753" s="3" t="s">
+    <row r="1753" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1753" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="B1753" t="s">
+      <c r="B1753" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1753" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1753">
-        <v>0.9</v>
-      </c>
-      <c r="E1753">
-        <v>0.9</v>
-      </c>
-      <c r="F1753">
-        <v>0.9</v>
-      </c>
-      <c r="G1753">
-        <v>1.05</v>
-      </c>
-      <c r="H1753">
-        <v>0.9</v>
-      </c>
-      <c r="I1753">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1754" s="3" t="s">
+      <c r="C1753" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1753" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1753" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1753" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1753" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1753" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1753" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1754" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="B1754" t="s">
+      <c r="B1754" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1754" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1754">
-        <v>1</v>
-      </c>
-      <c r="E1754">
+      <c r="C1754" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1754" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1754" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1754">
-        <v>1.05</v>
-      </c>
-      <c r="G1754">
-        <v>1</v>
-      </c>
-      <c r="H1754">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1754">
+      <c r="F1754" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1754" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1754" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1754" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1755" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1755" s="3" t="s">
+      <c r="J1754" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1754" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1755" s="5" t="s">
         <v>1807</v>
       </c>
-      <c r="B1755" t="s">
+      <c r="B1755" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1755" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1755">
-        <v>1.05</v>
-      </c>
-      <c r="E1755">
+      <c r="C1755" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1755" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1755" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1755">
-        <v>0.95</v>
-      </c>
-      <c r="G1755">
-        <v>1</v>
-      </c>
-      <c r="H1755">
-        <v>1.05</v>
-      </c>
-      <c r="I1755">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1756" s="3" t="s">
+      <c r="F1755" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1755" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1755" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1755" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1756" s="5" t="s">
         <v>1808</v>
       </c>
-      <c r="B1756" t="s">
+      <c r="B1756" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1756" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1756">
-        <v>0.95</v>
-      </c>
-      <c r="E1756">
-        <v>0.9</v>
-      </c>
-      <c r="F1756">
-        <v>1</v>
-      </c>
-      <c r="G1756">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1756">
-        <v>1</v>
-      </c>
-      <c r="I1756">
+      <c r="C1756" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1756" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1756" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1756" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1756" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1756" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1756" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1757" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1757" s="3" t="s">
+    <row r="1757" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1757" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="B1757" t="s">
+      <c r="B1757" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1757" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1757">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1757">
-        <v>0.9</v>
-      </c>
-      <c r="F1757">
-        <v>0.9</v>
-      </c>
-      <c r="G1757">
-        <v>0.95</v>
-      </c>
-      <c r="H1757">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1757">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1758" s="3" t="s">
+      <c r="C1757" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1757" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1757" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1757" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1757" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1757" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1757" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1757" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1757" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1758" s="5" t="s">
         <v>1810</v>
       </c>
-      <c r="B1758" t="s">
+      <c r="B1758" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1758" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1758">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1758">
+      <c r="C1758" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1758" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1758" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1758">
-        <v>0.9</v>
-      </c>
-      <c r="G1758">
-        <v>0.95</v>
-      </c>
-      <c r="H1758">
-        <v>1.05</v>
-      </c>
-      <c r="I1758">
+      <c r="F1758" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1758" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1758" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1758" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1759" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1759" s="3" t="s">
+    <row r="1759" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1759" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="B1759" t="s">
+      <c r="B1759" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1759" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1759">
-        <v>1.05</v>
-      </c>
-      <c r="E1759">
+      <c r="C1759" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1759" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1759" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1759">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1759">
-        <v>1</v>
-      </c>
-      <c r="H1759">
-        <v>1</v>
-      </c>
-      <c r="I1759">
+      <c r="F1759" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1759" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1759" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1759" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1760" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1760" s="3" t="s">
+    <row r="1760" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1760" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="B1760" t="s">
+      <c r="B1760" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1760" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1760">
-        <v>1</v>
-      </c>
-      <c r="E1760">
+      <c r="C1760" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1760" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1760" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1760">
-        <v>1</v>
-      </c>
-      <c r="G1760">
-        <v>1</v>
-      </c>
-      <c r="H1760">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1760">
+      <c r="F1760" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1760" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1760" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1760" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1761" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1761" s="3" t="s">
+    <row r="1761" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1761" s="5" t="s">
         <v>1813</v>
       </c>
-      <c r="B1761" t="s">
+      <c r="B1761" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1761" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1761">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1761">
+      <c r="C1761" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1761" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1761" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1761">
-        <v>1</v>
-      </c>
-      <c r="G1761">
-        <v>0.9</v>
-      </c>
-      <c r="H1761">
-        <v>0.95</v>
-      </c>
-      <c r="I1761">
+      <c r="F1761" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1761" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1761" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1761" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1762" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1762" s="3" t="s">
+    <row r="1762" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1762" s="5" t="s">
         <v>1814</v>
       </c>
-      <c r="B1762" t="s">
+      <c r="B1762" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1762" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1762">
-        <v>1</v>
-      </c>
-      <c r="E1762">
-        <v>0.9</v>
-      </c>
-      <c r="F1762">
-        <v>0.9</v>
-      </c>
-      <c r="G1762">
-        <v>1.05</v>
-      </c>
-      <c r="H1762">
-        <v>1.05</v>
-      </c>
-      <c r="I1762">
+      <c r="C1762" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1762" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1762" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1762" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1762" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1762" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1762" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1763" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1763" s="3" t="s">
+      <c r="J1762" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1762" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:11" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1763" s="5" t="s">
         <v>1815</v>
       </c>
-      <c r="B1763" t="s">
+      <c r="B1763" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1763" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1763">
-        <v>1.05</v>
-      </c>
-      <c r="E1763">
+      <c r="C1763" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1763" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1763" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1763">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1763">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1763">
-        <v>1.05</v>
-      </c>
-      <c r="I1763">
+      <c r="F1763" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1763" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1763" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1763" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1764" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1764" s="3" t="s">
+      <c r="J1763" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1763" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1764" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="B1764" t="s">
+      <c r="B1764" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1764" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1764">
-        <v>0.9</v>
-      </c>
-      <c r="E1764">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1764">
-        <v>1</v>
-      </c>
-      <c r="G1764">
-        <v>0.95</v>
-      </c>
-      <c r="H1764">
-        <v>0.95</v>
-      </c>
-      <c r="I1764">
+      <c r="C1764" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1764" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1764" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1764" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1764" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1764" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1764" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1765" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1765" s="3" t="s">
+      <c r="J1764" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1764" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1765" s="5" t="s">
         <v>1817</v>
       </c>
-      <c r="B1765" t="s">
+      <c r="B1765" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1765" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1765">
-        <v>0.9</v>
-      </c>
-      <c r="E1765">
-        <v>0.9</v>
-      </c>
-      <c r="F1765">
-        <v>0.95</v>
-      </c>
-      <c r="G1765">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1765">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1765">
+      <c r="C1765" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1765" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1765" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1765" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1765" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1765" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1765" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1766" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1766" s="3" t="s">
+      <c r="J1765" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1765" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1766" s="5" t="s">
         <v>1818</v>
       </c>
-      <c r="B1766" t="s">
+      <c r="B1766" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1766" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1766">
-        <v>0.95</v>
-      </c>
-      <c r="E1766">
+      <c r="C1766" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1766" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1766" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1766">
-        <v>1.05</v>
-      </c>
-      <c r="G1766">
-        <v>0.9</v>
-      </c>
-      <c r="H1766">
-        <v>1</v>
-      </c>
-      <c r="I1766">
+      <c r="F1766" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1766" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1766" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1766" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1767" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1767" s="3" t="s">
+    <row r="1767" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1767" s="5" t="s">
         <v>1819</v>
       </c>
-      <c r="B1767" t="s">
+      <c r="B1767" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1767" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1767">
-        <v>1.05</v>
-      </c>
-      <c r="E1767">
+      <c r="C1767" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1767" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1767" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1767">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1767">
-        <v>0.95</v>
-      </c>
-      <c r="H1767">
-        <v>1.05</v>
-      </c>
-      <c r="I1767">
+      <c r="F1767" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1767" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1767" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1767" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1768" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1768" s="3" t="s">
+      <c r="J1767" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1767" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1768" s="5" t="s">
         <v>1820</v>
       </c>
-      <c r="B1768" t="s">
+      <c r="B1768" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1768" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1768">
-        <v>1</v>
-      </c>
-      <c r="E1768">
+      <c r="C1768" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1768" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1768" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1768">
-        <v>0.9</v>
-      </c>
-      <c r="G1768">
-        <v>0.9</v>
-      </c>
-      <c r="H1768">
-        <v>0.95</v>
-      </c>
-      <c r="I1768">
+      <c r="F1768" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1768" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1768" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1768" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1769" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1769" s="3" t="s">
+      <c r="J1768" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1768" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1769" s="5" t="s">
         <v>1821</v>
       </c>
-      <c r="B1769" t="s">
+      <c r="B1769" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1769" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1769">
-        <v>1.05</v>
-      </c>
-      <c r="E1769">
+      <c r="C1769" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1769" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1769" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1769">
-        <v>1.05</v>
-      </c>
-      <c r="G1769">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1769">
-        <v>1.05</v>
-      </c>
-      <c r="I1769">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1770" s="3" t="s">
+      <c r="F1769" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1769" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1769" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1769" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1770" s="5" t="s">
         <v>1822</v>
       </c>
-      <c r="B1770" t="s">
+      <c r="B1770" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1770" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1770">
-        <v>1.05</v>
-      </c>
-      <c r="E1770">
+      <c r="C1770" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1770" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1770" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1770">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1770">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1770">
-        <v>1</v>
-      </c>
-      <c r="I1770">
+      <c r="F1770" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1770" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1770" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1770" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1771" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1771" s="3" t="s">
+    <row r="1771" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1771" s="5" t="s">
         <v>1823</v>
       </c>
-      <c r="B1771" t="s">
+      <c r="B1771" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1771" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1771">
-        <v>1</v>
-      </c>
-      <c r="E1771">
+      <c r="C1771" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1771" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1771" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1771">
-        <v>1</v>
-      </c>
-      <c r="G1771">
-        <v>1.05</v>
-      </c>
-      <c r="H1771">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1771">
+      <c r="F1771" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1771" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1771" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1771" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1772" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1772" s="3" t="s">
+      <c r="J1771" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1771" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1772" s="5" t="s">
         <v>1824</v>
       </c>
-      <c r="B1772" t="s">
+      <c r="B1772" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1772" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1772">
-        <v>0.9</v>
-      </c>
-      <c r="E1772">
+      <c r="C1772" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1772" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1772" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1772">
-        <v>0.95</v>
-      </c>
-      <c r="G1772">
-        <v>1</v>
-      </c>
-      <c r="H1772">
-        <v>0.95</v>
-      </c>
-      <c r="I1772">
+      <c r="F1772" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1772" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1772" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1772" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1773" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1773" s="3" t="s">
+    <row r="1773" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1773" s="5" t="s">
         <v>1825</v>
       </c>
-      <c r="B1773" t="s">
+      <c r="B1773" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1773" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1773">
-        <v>0.95</v>
-      </c>
-      <c r="E1773">
+      <c r="C1773" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1773" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1773" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1773">
-        <v>0.9</v>
-      </c>
-      <c r="G1773">
-        <v>1</v>
-      </c>
-      <c r="H1773">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1773">
+      <c r="F1773" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1773" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1773" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1773" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1774" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1774" s="3" t="s">
+      <c r="J1773" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1773" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1774" s="5" t="s">
         <v>1826</v>
       </c>
-      <c r="B1774" t="s">
+      <c r="B1774" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1774" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1774">
-        <v>1.05</v>
-      </c>
-      <c r="E1774">
+      <c r="C1774" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1774" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1774" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1774">
-        <v>0.9</v>
-      </c>
-      <c r="G1774">
-        <v>0.9</v>
-      </c>
-      <c r="H1774">
-        <v>0.9</v>
-      </c>
-      <c r="I1774">
+      <c r="F1774" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1774" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1774" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1774" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1775" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1775" s="3" t="s">
+      <c r="J1774" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1774" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1775" s="5" t="s">
         <v>1827</v>
       </c>
-      <c r="B1775" t="s">
+      <c r="B1775" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1775" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1775">
-        <v>1</v>
-      </c>
-      <c r="E1775">
+      <c r="C1775" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1775" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1775" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1775">
-        <v>0.95</v>
-      </c>
-      <c r="G1775">
-        <v>0.9</v>
-      </c>
-      <c r="H1775">
-        <v>1.05</v>
-      </c>
-      <c r="I1775">
+      <c r="F1775" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1775" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1775" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1775" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1776" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1776" s="3" t="s">
+      <c r="J1775" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1775" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1776" s="5" t="s">
         <v>1828</v>
       </c>
-      <c r="B1776" t="s">
+      <c r="B1776" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1776" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1776">
-        <v>0.9</v>
-      </c>
-      <c r="E1776">
-        <v>0.9</v>
-      </c>
-      <c r="F1776">
-        <v>1.05</v>
-      </c>
-      <c r="G1776">
-        <v>0.9</v>
-      </c>
-      <c r="H1776">
-        <v>0.9</v>
-      </c>
-      <c r="I1776">
+      <c r="C1776" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1776" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1776" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1776" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1776" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1776" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1776" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1777" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1777" s="3" t="s">
+    <row r="1777" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1777" s="5" t="s">
         <v>1829</v>
       </c>
-      <c r="B1777" t="s">
+      <c r="B1777" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1777" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1777">
-        <v>1.05</v>
-      </c>
-      <c r="E1777">
+      <c r="C1777" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1777" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1777" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1777">
-        <v>1</v>
-      </c>
-      <c r="G1777">
-        <v>0.95</v>
-      </c>
-      <c r="H1777">
-        <v>0.95</v>
-      </c>
-      <c r="I1777">
+      <c r="F1777" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1777" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1777" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1777" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1778" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1778" s="3" t="s">
+    <row r="1778" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1778" s="5" t="s">
         <v>1830</v>
       </c>
-      <c r="B1778" t="s">
+      <c r="B1778" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1778" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1778">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1778">
+      <c r="C1778" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1778" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1778" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1778">
-        <v>0.95</v>
-      </c>
-      <c r="G1778">
-        <v>0.95</v>
-      </c>
-      <c r="H1778">
-        <v>0.9</v>
-      </c>
-      <c r="I1778">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1779" s="3" t="s">
+      <c r="F1778" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1778" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1778" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1778" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1779" s="5" t="s">
         <v>1831</v>
       </c>
-      <c r="B1779" t="s">
+      <c r="B1779" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1779" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1779">
-        <v>1</v>
-      </c>
-      <c r="E1779">
+      <c r="C1779" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1779" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1779" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1779">
-        <v>1.05</v>
-      </c>
-      <c r="G1779">
-        <v>1.05</v>
-      </c>
-      <c r="H1779">
-        <v>1.05</v>
-      </c>
-      <c r="I1779">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1780" s="3" t="s">
+      <c r="F1779" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1779" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1779" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1779" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1780" s="5" t="s">
         <v>1832</v>
       </c>
-      <c r="B1780" t="s">
+      <c r="B1780" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1780" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1780">
-        <v>1</v>
-      </c>
-      <c r="E1780">
+      <c r="C1780" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1780" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1780" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1780">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1780">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1780">
-        <v>0.95</v>
-      </c>
-      <c r="I1780">
+      <c r="F1780" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1780" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1780" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1780" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1781" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1781" s="3" t="s">
+    <row r="1781" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1781" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="B1781" t="s">
+      <c r="B1781" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1781" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1781">
-        <v>0.9</v>
-      </c>
-      <c r="E1781">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1781">
-        <v>0.95</v>
-      </c>
-      <c r="G1781">
-        <v>1</v>
-      </c>
-      <c r="H1781">
-        <v>0.9</v>
-      </c>
-      <c r="I1781">
+      <c r="C1781" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1781" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1781" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1781" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1781" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1781" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1781" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1782" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1782" s="3" t="s">
+      <c r="J1781" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1781" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1782" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="B1782" t="s">
+      <c r="B1782" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1782" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1782">
-        <v>0.95</v>
-      </c>
-      <c r="E1782">
+      <c r="C1782" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1782" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1782" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1782">
-        <v>0.95</v>
-      </c>
-      <c r="G1782">
-        <v>1.05</v>
-      </c>
-      <c r="H1782">
-        <v>0.95</v>
-      </c>
-      <c r="I1782">
+      <c r="F1782" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1782" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1782" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1782" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1783" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1783" s="3" t="s">
+      <c r="J1782" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1782" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1783" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="B1783" t="s">
+      <c r="B1783" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1783" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1783">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1783">
+      <c r="C1783" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1783" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1783" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1783">
-        <v>1.05</v>
-      </c>
-      <c r="G1783">
-        <v>0.9</v>
-      </c>
-      <c r="H1783">
-        <v>1.05</v>
-      </c>
-      <c r="I1783">
+      <c r="F1783" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1783" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1783" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1783" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1784" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1784" s="3" t="s">
+    <row r="1784" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1784" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="B1784" t="s">
+      <c r="B1784" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1784" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1784">
-        <v>0.95</v>
-      </c>
-      <c r="E1784">
-        <v>0.9</v>
-      </c>
-      <c r="F1784">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1784">
-        <v>1</v>
-      </c>
-      <c r="H1784">
-        <v>1.05</v>
-      </c>
-      <c r="I1784">
+      <c r="C1784" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1784" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1784" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1784" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1784" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1784" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1784" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1785" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1785" s="3" t="s">
+    <row r="1785" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1785" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="B1785" t="s">
+      <c r="B1785" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1785" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1785">
-        <v>1</v>
-      </c>
-      <c r="E1785">
+      <c r="C1785" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1785" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1785" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1785">
-        <v>1.05</v>
-      </c>
-      <c r="G1785">
-        <v>1.05</v>
-      </c>
-      <c r="H1785">
-        <v>1</v>
-      </c>
-      <c r="I1785">
+      <c r="F1785" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1785" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1785" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1785" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1786" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1786" s="3" t="s">
+    <row r="1786" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1786" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="B1786" t="s">
+      <c r="B1786" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1786" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1786">
-        <v>0.95</v>
-      </c>
-      <c r="E1786">
+      <c r="C1786" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1786" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1786" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1786">
-        <v>0.95</v>
-      </c>
-      <c r="G1786">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1786">
-        <v>1.05</v>
-      </c>
-      <c r="I1786">
+      <c r="F1786" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1786" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1786" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1786" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1787" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1787" s="3" t="s">
+    <row r="1787" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1787" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="B1787" t="s">
+      <c r="B1787" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1787" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1787">
-        <v>0.95</v>
-      </c>
-      <c r="E1787">
+      <c r="C1787" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1787" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1787" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1787">
-        <v>0.95</v>
-      </c>
-      <c r="G1787">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1787">
-        <v>0.95</v>
-      </c>
-      <c r="I1787">
+      <c r="F1787" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1787" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1787" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1787" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1788" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1788" s="3" t="s">
+      <c r="J1787" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1787" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1788" s="5" t="s">
         <v>1840</v>
       </c>
-      <c r="B1788" t="s">
+      <c r="B1788" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1788" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1788">
-        <v>0.9</v>
-      </c>
-      <c r="E1788">
+      <c r="C1788" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1788" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1788" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1788">
-        <v>1</v>
-      </c>
-      <c r="G1788">
-        <v>0.95</v>
-      </c>
-      <c r="H1788">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1788">
+      <c r="F1788" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1788" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1788" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1788" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1789" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1789" s="3" t="s">
+    <row r="1789" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1789" s="5" t="s">
         <v>1841</v>
       </c>
-      <c r="B1789" t="s">
+      <c r="B1789" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1789" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1789">
-        <v>1</v>
-      </c>
-      <c r="E1789">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1789">
-        <v>0.95</v>
-      </c>
-      <c r="G1789">
-        <v>1</v>
-      </c>
-      <c r="H1789">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1789">
+      <c r="C1789" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1789" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1789" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1789" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1789" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1789" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1789" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1790" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1790" s="3" t="s">
+    <row r="1790" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1790" s="5" t="s">
         <v>1842</v>
       </c>
-      <c r="B1790" t="s">
+      <c r="B1790" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1790" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1790">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1790">
-        <v>0.9</v>
-      </c>
-      <c r="F1790">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1790">
-        <v>0.95</v>
-      </c>
-      <c r="H1790">
-        <v>0.9</v>
-      </c>
-      <c r="I1790">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1791" s="3" t="s">
+      <c r="C1790" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1790" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1790" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1790" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1790" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1790" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1790" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1790" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1790" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1791" s="5" t="s">
         <v>1843</v>
       </c>
-      <c r="B1791" t="s">
+      <c r="B1791" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1791" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1791">
-        <v>1</v>
-      </c>
-      <c r="E1791">
+      <c r="C1791" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1791" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1791" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1791">
-        <v>1.05</v>
-      </c>
-      <c r="G1791">
-        <v>1</v>
-      </c>
-      <c r="H1791">
-        <v>1</v>
-      </c>
-      <c r="I1791">
+      <c r="F1791" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1791" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1791" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1791" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1792" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1792" s="3" t="s">
+    <row r="1792" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1792" s="5" t="s">
         <v>1844</v>
       </c>
-      <c r="B1792" t="s">
+      <c r="B1792" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1792" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1792">
-        <v>1</v>
-      </c>
-      <c r="E1792">
+      <c r="C1792" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1792" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1792" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1792">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1792">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1792">
-        <v>0.95</v>
-      </c>
-      <c r="I1792">
+      <c r="F1792" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1792" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1792" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1792" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1793" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1793" s="3" t="s">
+      <c r="J1792" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1792" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1793" s="5" t="s">
         <v>1845</v>
       </c>
-      <c r="B1793" t="s">
+      <c r="B1793" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1793" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1793">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1793">
-        <v>0.9</v>
-      </c>
-      <c r="F1793">
-        <v>0.9</v>
-      </c>
-      <c r="G1793">
-        <v>0.95</v>
-      </c>
-      <c r="H1793">
-        <v>1</v>
-      </c>
-      <c r="I1793">
+      <c r="C1793" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1793" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1793" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1793" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1793" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1793" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1793" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1794" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1794" s="3" t="s">
+    <row r="1794" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1794" s="5" t="s">
         <v>1846</v>
       </c>
-      <c r="B1794" t="s">
+      <c r="B1794" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1794" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1794">
-        <v>0.95</v>
-      </c>
-      <c r="E1794">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1794">
-        <v>1</v>
-      </c>
-      <c r="G1794">
-        <v>1.05</v>
-      </c>
-      <c r="H1794">
-        <v>1.05</v>
-      </c>
-      <c r="I1794">
+      <c r="C1794" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1794" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1794" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1794" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1794" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1794" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1794" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1795" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1795" s="3" t="s">
+    <row r="1795" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1795" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="B1795" t="s">
+      <c r="B1795" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1795" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1795">
-        <v>1.05</v>
-      </c>
-      <c r="E1795">
+      <c r="C1795" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1795" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1795" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1795">
-        <v>0.9</v>
-      </c>
-      <c r="G1795">
-        <v>1</v>
-      </c>
-      <c r="H1795">
-        <v>0.95</v>
-      </c>
-      <c r="I1795">
+      <c r="F1795" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1795" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1795" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1795" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1796" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1796" s="3" t="s">
+    <row r="1796" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1796" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="B1796" t="s">
+      <c r="B1796" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1796" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1796">
-        <v>1</v>
-      </c>
-      <c r="E1796">
-        <v>0.9</v>
-      </c>
-      <c r="F1796">
-        <v>1</v>
-      </c>
-      <c r="G1796">
-        <v>0.9</v>
-      </c>
-      <c r="H1796">
-        <v>0.9</v>
-      </c>
-      <c r="I1796">
+      <c r="C1796" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1796" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1796" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1796" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1796" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1796" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1796" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1797" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1797" s="3" t="s">
+      <c r="J1796" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1796" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1797" s="5" t="s">
         <v>1849</v>
       </c>
-      <c r="B1797" t="s">
+      <c r="B1797" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1797" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1797">
-        <v>0.9</v>
-      </c>
-      <c r="E1797">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1797">
-        <v>0.9</v>
-      </c>
-      <c r="G1797">
-        <v>0.95</v>
-      </c>
-      <c r="H1797">
-        <v>1.05</v>
-      </c>
-      <c r="I1797">
+      <c r="C1797" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1797" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1797" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1797" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1797" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1797" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1797" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1798" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1798" s="3" t="s">
+      <c r="J1797" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1797" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1798" s="5" t="s">
         <v>1850</v>
       </c>
-      <c r="B1798" t="s">
+      <c r="B1798" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1798" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1798">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1798">
+      <c r="C1798" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1798" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1798" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1798">
-        <v>1</v>
-      </c>
-      <c r="G1798">
-        <v>1</v>
-      </c>
-      <c r="H1798">
-        <v>1.05</v>
-      </c>
-      <c r="I1798">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1799" s="3" t="s">
+      <c r="F1798" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1798" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1798" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1798" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1798" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1798" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1799" s="5" t="s">
         <v>1851</v>
       </c>
-      <c r="B1799" t="s">
+      <c r="B1799" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1799" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1799">
-        <v>1</v>
-      </c>
-      <c r="E1799">
+      <c r="C1799" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1799" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1799" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1799">
-        <v>1.05</v>
-      </c>
-      <c r="G1799">
-        <v>0.9</v>
-      </c>
-      <c r="H1799">
-        <v>1</v>
-      </c>
-      <c r="I1799">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1800" s="3" t="s">
+      <c r="F1799" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1799" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1799" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1799" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1799" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1799" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1800" s="5" t="s">
         <v>1852</v>
       </c>
-      <c r="B1800" t="s">
+      <c r="B1800" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1800" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1800">
-        <v>0.95</v>
-      </c>
-      <c r="E1800">
-        <v>0.9</v>
-      </c>
-      <c r="F1800">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1800">
-        <v>0.9</v>
-      </c>
-      <c r="H1800">
-        <v>0.9</v>
-      </c>
-      <c r="I1800">
+      <c r="C1800" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1800" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1800" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1800" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1800" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1800" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1800" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1801" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1801" s="3" t="s">
+    <row r="1801" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1801" s="5" t="s">
         <v>1853</v>
       </c>
-      <c r="B1801" t="s">
+      <c r="B1801" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1801" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1801">
-        <v>1</v>
-      </c>
-      <c r="E1801">
+      <c r="C1801" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1801" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1801" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1801">
-        <v>1.05</v>
-      </c>
-      <c r="G1801">
-        <v>0.95</v>
-      </c>
-      <c r="H1801">
-        <v>1.05</v>
-      </c>
-      <c r="I1801">
+      <c r="F1801" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1801" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1801" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1801" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1802" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1802" s="3" t="s">
+    <row r="1802" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1802" s="5" t="s">
         <v>1854</v>
       </c>
-      <c r="B1802" t="s">
+      <c r="B1802" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1802" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1802">
-        <v>1.05</v>
-      </c>
-      <c r="E1802">
-        <v>0.9</v>
-      </c>
-      <c r="F1802">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1802">
-        <v>1.05</v>
-      </c>
-      <c r="H1802">
-        <v>0.9</v>
-      </c>
-      <c r="I1802">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1803" s="3" t="s">
+      <c r="C1802" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1802" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1802" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1802" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1802" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1802" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1802" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1803" s="5" t="s">
         <v>1855</v>
       </c>
-      <c r="B1803" t="s">
+      <c r="B1803" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1803" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1803">
-        <v>0.9</v>
-      </c>
-      <c r="E1803">
+      <c r="C1803" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1803" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1803" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1803">
-        <v>1</v>
-      </c>
-      <c r="G1803">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1803">
-        <v>0.95</v>
-      </c>
-      <c r="I1803">
+      <c r="F1803" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1803" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1803" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1803" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1804" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1804" s="3" t="s">
+      <c r="J1803" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1803" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1804" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="B1804" t="s">
+      <c r="B1804" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1804" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1804">
-        <v>0.9</v>
-      </c>
-      <c r="E1804">
-        <v>0.9</v>
-      </c>
-      <c r="F1804">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1804">
-        <v>0.9</v>
-      </c>
-      <c r="H1804">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1804">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1805" s="3" t="s">
+      <c r="C1804" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1804" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1804" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1804" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1804" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1804" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1804" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1804" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1804" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1805" s="5" t="s">
         <v>1857</v>
       </c>
-      <c r="B1805" t="s">
+      <c r="B1805" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1805" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1805">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1805">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1805">
-        <v>1.05</v>
-      </c>
-      <c r="G1805">
-        <v>0.95</v>
-      </c>
-      <c r="H1805">
-        <v>0.9</v>
-      </c>
-      <c r="I1805">
+      <c r="C1805" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1805" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1805" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1805" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1805" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1805" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1805" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1806" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1806" s="3" t="s">
+    <row r="1806" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1806" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="B1806" t="s">
+      <c r="B1806" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1806" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1806">
-        <v>1.05</v>
-      </c>
-      <c r="E1806">
+      <c r="C1806" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1806" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1806" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1806">
-        <v>1.05</v>
-      </c>
-      <c r="G1806">
-        <v>0.9</v>
-      </c>
-      <c r="H1806">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1806">
+      <c r="F1806" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1806" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1806" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1806" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1807" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1807" s="3" t="s">
+    <row r="1807" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1807" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="B1807" t="s">
+      <c r="B1807" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1807" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1807">
-        <v>1.05</v>
-      </c>
-      <c r="E1807">
+      <c r="C1807" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1807" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1807" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1807">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1807">
-        <v>0.9</v>
-      </c>
-      <c r="H1807">
-        <v>0.95</v>
-      </c>
-      <c r="I1807">
+      <c r="F1807" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1807" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1807" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1807" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1808" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1808" s="3" t="s">
+      <c r="J1807" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1807" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1808" s="5" t="s">
         <v>1860</v>
       </c>
-      <c r="B1808" t="s">
+      <c r="B1808" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1808" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1808">
-        <v>1</v>
-      </c>
-      <c r="E1808">
+      <c r="C1808" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1808" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1808" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1808">
-        <v>1.05</v>
-      </c>
-      <c r="G1808">
-        <v>1</v>
-      </c>
-      <c r="H1808">
-        <v>1.05</v>
-      </c>
-      <c r="I1808">
+      <c r="F1808" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1808" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1808" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1808" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1809" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1809" s="3" t="s">
+    <row r="1809" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1809" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="B1809" t="s">
+      <c r="B1809" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1809" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1809">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1809">
+      <c r="C1809" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1809" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1809" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1809">
-        <v>1</v>
-      </c>
-      <c r="G1809">
-        <v>1.05</v>
-      </c>
-      <c r="H1809">
-        <v>1</v>
-      </c>
-      <c r="I1809">
+      <c r="F1809" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1809" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1809" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1809" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1810" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1810" s="3" t="s">
+      <c r="J1809" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1809" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1810" s="5" t="s">
         <v>1862</v>
       </c>
-      <c r="B1810" t="s">
+      <c r="B1810" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1810" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1810">
-        <v>1.05</v>
-      </c>
-      <c r="E1810">
+      <c r="C1810" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1810" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1810" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1810">
-        <v>1.05</v>
-      </c>
-      <c r="G1810">
-        <v>0.9</v>
-      </c>
-      <c r="H1810">
-        <v>0.95</v>
-      </c>
-      <c r="I1810">
+      <c r="F1810" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1810" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1810" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1810" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1811" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1811" s="3" t="s">
+      <c r="J1810" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1810" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1811" s="5" t="s">
         <v>1863</v>
       </c>
-      <c r="B1811" t="s">
+      <c r="B1811" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1811" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1811">
-        <v>0.95</v>
-      </c>
-      <c r="E1811">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1811">
-        <v>1.05</v>
-      </c>
-      <c r="G1811">
-        <v>0.95</v>
-      </c>
-      <c r="H1811">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1811">
+      <c r="C1811" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1811" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1811" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1811" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1811" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1811" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1811" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1812" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1812" s="3" t="s">
+      <c r="J1811" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1811" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1812" s="5" t="s">
         <v>1864</v>
       </c>
-      <c r="B1812" t="s">
+      <c r="B1812" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1812" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1812">
-        <v>1.05</v>
-      </c>
-      <c r="E1812">
+      <c r="C1812" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1812" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1812" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1812">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1812">
-        <v>1</v>
-      </c>
-      <c r="H1812">
-        <v>0.9</v>
-      </c>
-      <c r="I1812">
+      <c r="F1812" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1812" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1812" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1812" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1813" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1813" s="3" t="s">
+    <row r="1813" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1813" s="5" t="s">
         <v>1865</v>
       </c>
-      <c r="B1813" t="s">
+      <c r="B1813" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1813" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1813">
-        <v>1</v>
-      </c>
-      <c r="E1813">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1813">
-        <v>1</v>
-      </c>
-      <c r="G1813">
-        <v>1.05</v>
-      </c>
-      <c r="H1813">
-        <v>0.95</v>
-      </c>
-      <c r="I1813">
+      <c r="C1813" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1813" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1813" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1813" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1813" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1813" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1813" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1814" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1814" s="3" t="s">
+      <c r="J1813" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1813" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1814" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="B1814" t="s">
+      <c r="B1814" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1814" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1814">
-        <v>1</v>
-      </c>
-      <c r="E1814">
+      <c r="C1814" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1814" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1814" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1814">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1814">
-        <v>0.9</v>
-      </c>
-      <c r="H1814">
-        <v>0.95</v>
-      </c>
-      <c r="I1814">
+      <c r="F1814" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1814" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1814" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1814" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1815" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1815" s="3" t="s">
+      <c r="J1814" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1814" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1815" s="5" t="s">
         <v>1867</v>
       </c>
-      <c r="B1815" t="s">
+      <c r="B1815" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1815" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1815">
-        <v>1.05</v>
-      </c>
-      <c r="E1815">
+      <c r="C1815" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1815" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1815" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1815">
-        <v>0.95</v>
-      </c>
-      <c r="G1815">
-        <v>1.05</v>
-      </c>
-      <c r="H1815">
-        <v>0.9</v>
-      </c>
-      <c r="I1815">
+      <c r="F1815" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1815" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1815" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1815" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1816" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1816" s="3" t="s">
+      <c r="J1815" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1815" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1816" s="5" t="s">
         <v>1868</v>
       </c>
-      <c r="B1816" t="s">
+      <c r="B1816" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1816" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1816">
-        <v>0.9</v>
-      </c>
-      <c r="E1816">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1816">
-        <v>0.95</v>
-      </c>
-      <c r="G1816">
-        <v>1.05</v>
-      </c>
-      <c r="H1816">
-        <v>0.9</v>
-      </c>
-      <c r="I1816">
+      <c r="C1816" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1816" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1816" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1816" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1816" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1816" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1816" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1817" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1817" s="3" t="s">
+    <row r="1817" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1817" s="5" t="s">
         <v>1869</v>
       </c>
-      <c r="B1817" t="s">
+      <c r="B1817" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1817" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1817">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1817">
+      <c r="C1817" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1817" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1817" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1817">
-        <v>1.05</v>
-      </c>
-      <c r="G1817">
-        <v>0.9</v>
-      </c>
-      <c r="H1817">
-        <v>1.05</v>
-      </c>
-      <c r="I1817">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1818" s="3" t="s">
+      <c r="F1817" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1817" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1817" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1817" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1817" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1817" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1818" s="5" t="s">
         <v>1870</v>
       </c>
-      <c r="B1818" t="s">
+      <c r="B1818" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1818" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1818">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1818">
+      <c r="C1818" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1818" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1818" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1818">
-        <v>1</v>
-      </c>
-      <c r="G1818">
-        <v>1.05</v>
-      </c>
-      <c r="H1818">
-        <v>0.95</v>
-      </c>
-      <c r="I1818">
+      <c r="F1818" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1818" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1818" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1818" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1819" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1819" s="3" t="s">
+      <c r="J1818" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1818" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1819" s="5" t="s">
         <v>1871</v>
       </c>
-      <c r="B1819" t="s">
+      <c r="B1819" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1819" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1819">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1819">
+      <c r="C1819" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1819" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1819" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1819">
-        <v>0.9</v>
-      </c>
-      <c r="G1819">
-        <v>0.95</v>
-      </c>
-      <c r="H1819">
-        <v>0.95</v>
-      </c>
-      <c r="I1819">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1820" s="3" t="s">
+      <c r="F1819" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1819" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1819" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1819" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1820" s="5" t="s">
         <v>1872</v>
       </c>
-      <c r="B1820" t="s">
+      <c r="B1820" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1820" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1820">
-        <v>0.9</v>
-      </c>
-      <c r="E1820">
+      <c r="C1820" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1820" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1820" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1820">
-        <v>0.95</v>
-      </c>
-      <c r="G1820">
-        <v>1.05</v>
-      </c>
-      <c r="H1820">
-        <v>1</v>
-      </c>
-      <c r="I1820">
+      <c r="F1820" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1820" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1820" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1820" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1821" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1821" s="3" t="s">
+    <row r="1821" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1821" s="5" t="s">
         <v>1873</v>
       </c>
-      <c r="B1821" t="s">
+      <c r="B1821" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1821" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1821">
-        <v>0.95</v>
-      </c>
-      <c r="E1821">
+      <c r="C1821" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1821" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1821" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1821">
-        <v>1.05</v>
-      </c>
-      <c r="G1821">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1821">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1821">
+      <c r="F1821" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1821" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1821" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1821" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1822" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1822" s="3" t="s">
+      <c r="J1821" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1821" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1822" s="5" t="s">
         <v>1874</v>
       </c>
-      <c r="B1822" t="s">
+      <c r="B1822" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1822" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1822">
-        <v>1.05</v>
-      </c>
-      <c r="E1822">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1822">
-        <v>1.05</v>
-      </c>
-      <c r="G1822">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1822">
-        <v>0.95</v>
-      </c>
-      <c r="I1822">
+      <c r="C1822" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1822" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1822" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1822" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1822" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1822" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1822" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1823" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1823" s="3" t="s">
+    <row r="1823" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1823" s="5" t="s">
         <v>1875</v>
       </c>
-      <c r="B1823" t="s">
+      <c r="B1823" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1823" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1823">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1823">
+      <c r="C1823" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1823" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1823" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1823">
-        <v>0.9</v>
-      </c>
-      <c r="G1823">
-        <v>1</v>
-      </c>
-      <c r="H1823">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1823">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1824" s="3" t="s">
+      <c r="F1823" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1823" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1823" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1823" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1824" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="B1824" t="s">
+      <c r="B1824" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1824" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1824">
-        <v>0.9</v>
-      </c>
-      <c r="E1824">
-        <v>0.9</v>
-      </c>
-      <c r="F1824">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1824">
-        <v>1.05</v>
-      </c>
-      <c r="H1824">
-        <v>0.95</v>
-      </c>
-      <c r="I1824">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1825" s="3" t="s">
+      <c r="C1824" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1824" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1824" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1824" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1824" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1824" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1824" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1824" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1824" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1825" s="5" t="s">
         <v>1877</v>
       </c>
-      <c r="B1825" t="s">
+      <c r="B1825" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1825" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1825">
-        <v>1</v>
-      </c>
-      <c r="E1825">
+      <c r="C1825" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1825" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1825" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1825">
-        <v>1.05</v>
-      </c>
-      <c r="G1825">
-        <v>1.05</v>
-      </c>
-      <c r="H1825">
-        <v>1</v>
-      </c>
-      <c r="I1825">
+      <c r="F1825" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1825" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1825" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1825" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1826" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1826" s="3" t="s">
+      <c r="J1825" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1825" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1826" s="5" t="s">
         <v>1878</v>
       </c>
-      <c r="B1826" t="s">
+      <c r="B1826" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1826" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1826">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1826">
+      <c r="C1826" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1826" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1826" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1826">
-        <v>0.9</v>
-      </c>
-      <c r="G1826">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1826">
-        <v>0.95</v>
-      </c>
-      <c r="I1826">
+      <c r="F1826" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1826" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1826" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1826" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1827" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1827" s="3" t="s">
+      <c r="J1826" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1826" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1827" s="5" t="s">
         <v>1879</v>
       </c>
-      <c r="B1827" t="s">
+      <c r="B1827" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1827" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1827">
-        <v>1.05</v>
-      </c>
-      <c r="E1827">
+      <c r="C1827" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1827" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1827" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1827">
-        <v>1.05</v>
-      </c>
-      <c r="G1827">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1827">
-        <v>0.95</v>
-      </c>
-      <c r="I1827">
+      <c r="F1827" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1827" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1827" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1827" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1828" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1828" s="3" t="s">
+    <row r="1828" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1828" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="B1828" t="s">
+      <c r="B1828" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1828" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1828">
-        <v>0.95</v>
-      </c>
-      <c r="E1828">
+      <c r="C1828" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1828" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1828" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1828">
-        <v>1</v>
-      </c>
-      <c r="G1828">
-        <v>0.95</v>
-      </c>
-      <c r="H1828">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1828">
+      <c r="F1828" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1828" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1828" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1828" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1829" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1829" s="3" t="s">
+      <c r="J1828" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1828" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1829" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="B1829" t="s">
+      <c r="B1829" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1829" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1829">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1829">
+      <c r="C1829" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1829" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1829" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1829">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1829">
-        <v>0.9</v>
-      </c>
-      <c r="H1829">
-        <v>0.95</v>
-      </c>
-      <c r="I1829">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1830" s="3" t="s">
+      <c r="F1829" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1829" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1829" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1829" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1829" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1829" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1830" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="B1830" t="s">
+      <c r="B1830" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1830" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1830">
-        <v>1</v>
-      </c>
-      <c r="E1830">
+      <c r="C1830" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1830" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1830" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1830">
-        <v>1</v>
-      </c>
-      <c r="G1830">
-        <v>1.05</v>
-      </c>
-      <c r="H1830">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1831" s="3" t="s">
+      <c r="F1830" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1830" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1830" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1830" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1831" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="B1831" t="s">
+      <c r="B1831" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1831" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1831">
-        <v>1.05</v>
-      </c>
-      <c r="E1831">
+      <c r="C1831" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1831" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1831" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1831">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1831">
-        <v>1.05</v>
-      </c>
-      <c r="H1831">
-        <v>1.05</v>
-      </c>
-      <c r="I1831">
+      <c r="F1831" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1831" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1831" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1831" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1832" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1832" s="3" t="s">
+    <row r="1832" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1832" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="B1832" t="s">
+      <c r="B1832" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1832" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1832">
-        <v>1</v>
-      </c>
-      <c r="E1832">
+      <c r="C1832" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1832" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1832" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1832">
-        <v>0.95</v>
-      </c>
-      <c r="G1832">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1832">
-        <v>1</v>
-      </c>
-      <c r="I1832">
+      <c r="F1832" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1832" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1832" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1832" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1833" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1833" s="3" t="s">
+      <c r="J1832" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1832" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1833" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="B1833" t="s">
+      <c r="B1833" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1833" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1833">
-        <v>1.05</v>
-      </c>
-      <c r="E1833">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1833">
-        <v>0.9</v>
-      </c>
-      <c r="G1833">
-        <v>1.05</v>
-      </c>
-      <c r="H1833">
-        <v>0.95</v>
-      </c>
-      <c r="I1833">
+      <c r="C1833" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1833" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1833" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1833" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1833" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1833" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1833" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1834" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1834" s="3" t="s">
+      <c r="J1833" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1833" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1834" s="5" t="s">
         <v>1886</v>
       </c>
-      <c r="B1834" t="s">
+      <c r="B1834" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1834" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1834">
-        <v>1</v>
-      </c>
-      <c r="E1834">
+      <c r="C1834" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1834" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1834" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1834">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1834">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1834">
-        <v>0.95</v>
-      </c>
-      <c r="I1834">
+      <c r="F1834" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1834" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1834" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1834" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1835" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1835" s="3" t="s">
+      <c r="J1834" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1834" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1835" s="5" t="s">
         <v>1887</v>
       </c>
-      <c r="B1835" t="s">
+      <c r="B1835" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1835" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1835">
-        <v>1</v>
-      </c>
-      <c r="E1835">
+      <c r="C1835" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1835" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1835" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1835">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1835">
-        <v>1.05</v>
-      </c>
-      <c r="H1835">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1835">
+      <c r="F1835" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1835" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1835" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1835" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1836" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1836" s="3" t="s">
+    <row r="1836" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1836" s="5" t="s">
         <v>1888</v>
       </c>
-      <c r="B1836" t="s">
+      <c r="B1836" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1836" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1836">
-        <v>1</v>
-      </c>
-      <c r="E1836">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1836">
-        <v>1.05</v>
-      </c>
-      <c r="G1836">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1836">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1836">
+      <c r="C1836" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1836" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1836" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1836" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1836" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1836" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1836" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1837" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1837" s="3" t="s">
+      <c r="J1836" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1836" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1837" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="B1837" t="s">
+      <c r="B1837" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1837" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1837">
-        <v>1.05</v>
-      </c>
-      <c r="E1837">
+      <c r="C1837" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1837" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1837" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1837">
-        <v>0.9</v>
-      </c>
-      <c r="G1837">
-        <v>0.95</v>
-      </c>
-      <c r="H1837">
-        <v>0.9</v>
-      </c>
-      <c r="I1837">
+      <c r="F1837" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1837" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1837" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1837" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1838" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1838" s="3" t="s">
+      <c r="J1837" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1837" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1838" s="5" t="s">
         <v>1890</v>
       </c>
-      <c r="B1838" t="s">
+      <c r="B1838" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1838" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1838">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1838">
-        <v>0.9</v>
-      </c>
-      <c r="F1838">
-        <v>0.9</v>
-      </c>
-      <c r="G1838">
-        <v>0.95</v>
-      </c>
-      <c r="H1838">
-        <v>0.9</v>
-      </c>
-      <c r="I1838">
+      <c r="C1838" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1838" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1838" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1838" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1838" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1838" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1838" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1839" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1839" s="3" t="s">
+      <c r="J1838" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1838" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1839" s="5" t="s">
         <v>1891</v>
       </c>
-      <c r="B1839" t="s">
+      <c r="B1839" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1839" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1839">
-        <v>0.9</v>
-      </c>
-      <c r="E1839">
+      <c r="C1839" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1839" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1839" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1839">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1839">
-        <v>0.9</v>
-      </c>
-      <c r="H1839">
-        <v>0.95</v>
-      </c>
-      <c r="I1839">
+      <c r="F1839" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1839" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1839" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1839" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1840" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1840" s="3" t="s">
+      <c r="J1839" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1839" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1840" s="5" t="s">
         <v>1892</v>
       </c>
-      <c r="B1840" t="s">
+      <c r="B1840" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1840" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1840">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1840">
-        <v>0.9</v>
-      </c>
-      <c r="F1840">
-        <v>0.95</v>
-      </c>
-      <c r="G1840">
-        <v>1.05</v>
-      </c>
-      <c r="H1840">
-        <v>1</v>
-      </c>
-      <c r="I1840">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1841" s="3" t="s">
+      <c r="C1840" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1840" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1840" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1840" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1840" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1840" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1840" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1840" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1840" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1841" s="5" t="s">
         <v>1893</v>
       </c>
-      <c r="B1841" t="s">
+      <c r="B1841" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1841" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1841">
-        <v>1</v>
-      </c>
-      <c r="E1841">
-        <v>0.9</v>
-      </c>
-      <c r="F1841">
-        <v>0.9</v>
-      </c>
-      <c r="G1841">
-        <v>0.95</v>
-      </c>
-      <c r="H1841">
-        <v>1.05</v>
-      </c>
-      <c r="I1841">
+      <c r="C1841" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1841" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1841" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1841" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1841" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1841" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1841" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1842" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1842" s="3" t="s">
+    <row r="1842" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1842" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="B1842" t="s">
+      <c r="B1842" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1842" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1842">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1842">
+      <c r="C1842" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1842" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1842" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1842">
-        <v>1.05</v>
-      </c>
-      <c r="G1842">
-        <v>0.9</v>
-      </c>
-      <c r="H1842">
-        <v>1</v>
-      </c>
-      <c r="I1842">
+      <c r="F1842" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1842" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1842" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1842" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1843" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1843" s="3" t="s">
+      <c r="J1842" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1842" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1843" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="B1843" t="s">
+      <c r="B1843" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1843" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1843">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1843">
-        <v>0.9</v>
-      </c>
-      <c r="F1843">
-        <v>1.05</v>
-      </c>
-      <c r="G1843">
-        <v>0.95</v>
-      </c>
-      <c r="H1843">
-        <v>1</v>
-      </c>
-      <c r="I1843">
+      <c r="C1843" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1843" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1843" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1843" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1843" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1843" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1843" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1844" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1844" s="3" t="s">
+      <c r="J1843" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1843" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1844" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="B1844" t="s">
+      <c r="B1844" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1844" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1844">
-        <v>1.05</v>
-      </c>
-      <c r="E1844">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1844">
-        <v>1.05</v>
-      </c>
-      <c r="G1844">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1844">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1844">
+      <c r="C1844" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1844" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1844" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1844" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1844" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1844" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1844" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1845" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1845" s="3" t="s">
+      <c r="J1844" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1844" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1845" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="B1845" t="s">
+      <c r="B1845" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1845" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1845">
-        <v>1</v>
-      </c>
-      <c r="E1845">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1845">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1845">
-        <v>1</v>
-      </c>
-      <c r="H1845">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1845">
+      <c r="C1845" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1845" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1845" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1845" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1845" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1845" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1845" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1846" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1846" s="3" t="s">
+      <c r="J1845" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1845" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1846" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="B1846" t="s">
+      <c r="B1846" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1846" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1846">
-        <v>0.9</v>
-      </c>
-      <c r="E1846">
+      <c r="C1846" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1846" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1846" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1846">
-        <v>1.05</v>
-      </c>
-      <c r="G1846">
-        <v>1</v>
-      </c>
-      <c r="H1846">
-        <v>0.9</v>
-      </c>
-      <c r="I1846">
+      <c r="F1846" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1846" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1846" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1846" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1847" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1847" s="3" t="s">
+      <c r="J1846" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1846" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1847" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="B1847" t="s">
+      <c r="B1847" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1847" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1847">
-        <v>0.95</v>
-      </c>
-      <c r="E1847">
+      <c r="C1847" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1847" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1847" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1847">
-        <v>1</v>
-      </c>
-      <c r="G1847">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1847">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1847">
+      <c r="F1847" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1847" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1847" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1847" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1848" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1848" s="3" t="s">
+      <c r="J1847" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1847" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1848" s="5" t="s">
         <v>1900</v>
       </c>
-      <c r="B1848" t="s">
+      <c r="B1848" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1848" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1848">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1848">
+      <c r="C1848" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1848" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1848" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1848">
-        <v>0.95</v>
-      </c>
-      <c r="G1848">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1848">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1848">
+      <c r="F1848" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1848" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1848" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1848" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1849" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1849" s="3" t="s">
+    <row r="1849" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1849" s="5" t="s">
         <v>1901</v>
       </c>
-      <c r="B1849" t="s">
+      <c r="B1849" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1849" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1849">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1849">
+      <c r="C1849" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1849" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1849" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1849">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1849">
-        <v>1.05</v>
-      </c>
-      <c r="H1849">
-        <v>0.95</v>
-      </c>
-      <c r="I1849">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1850" s="3" t="s">
+      <c r="F1849" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1849" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1849" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1849" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1850" s="5" t="s">
         <v>1902</v>
       </c>
-      <c r="B1850" t="s">
+      <c r="B1850" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1850" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1850">
-        <v>1</v>
-      </c>
-      <c r="E1850">
-        <v>0.9</v>
-      </c>
-      <c r="F1850">
-        <v>1</v>
-      </c>
-      <c r="G1850">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1850">
-        <v>1.05</v>
-      </c>
-      <c r="I1850">
+      <c r="C1850" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1850" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1850" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1850" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1850" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1850" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1850" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1851" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1851" s="3" t="s">
+    <row r="1851" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1851" s="5" t="s">
         <v>1903</v>
       </c>
-      <c r="B1851" t="s">
+      <c r="B1851" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1851" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1851">
-        <v>0.9</v>
-      </c>
-      <c r="E1851">
+      <c r="C1851" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1851" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1851" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1851">
-        <v>1.05</v>
-      </c>
-      <c r="G1851">
-        <v>1.05</v>
-      </c>
-      <c r="H1851">
-        <v>0.95</v>
-      </c>
-      <c r="I1851">
+      <c r="F1851" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1851" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1851" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1851" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1852" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1852" s="3" t="s">
+      <c r="J1851" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1851" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1852" s="5" t="s">
         <v>1904</v>
       </c>
-      <c r="B1852" t="s">
+      <c r="B1852" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1852" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1852">
-        <v>1</v>
-      </c>
-      <c r="E1852">
+      <c r="C1852" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1852" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1852" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1852">
-        <v>0.95</v>
-      </c>
-      <c r="G1852">
-        <v>0.9</v>
-      </c>
-      <c r="H1852">
-        <v>0.9</v>
-      </c>
-      <c r="I1852">
+      <c r="F1852" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1852" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1852" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1852" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1853" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1853" s="3" t="s">
+    <row r="1853" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1853" s="5" t="s">
         <v>1905</v>
       </c>
-      <c r="B1853" t="s">
+      <c r="B1853" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1853" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1853">
-        <v>1.05</v>
-      </c>
-      <c r="E1853">
+      <c r="C1853" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1853" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1853" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1853">
-        <v>0.95</v>
-      </c>
-      <c r="G1853">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1853">
-        <v>1</v>
-      </c>
-      <c r="I1853">
+      <c r="F1853" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1853" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1853" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1853" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1854" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1854" s="3" t="s">
+    <row r="1854" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1854" s="5" t="s">
         <v>1906</v>
       </c>
-      <c r="B1854" t="s">
+      <c r="B1854" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1854" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1854">
-        <v>1</v>
-      </c>
-      <c r="E1854">
+      <c r="C1854" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1854" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1854" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1854">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1854">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1854">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1854">
+      <c r="F1854" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1854" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1854" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1854" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1855" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1855" s="3" t="s">
+      <c r="J1854" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1854" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1855" s="5" t="s">
         <v>1907</v>
       </c>
-      <c r="B1855" t="s">
+      <c r="B1855" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1855" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1855">
-        <v>1.05</v>
-      </c>
-      <c r="E1855">
+      <c r="C1855" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1855" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1855" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1855">
-        <v>1.05</v>
-      </c>
-      <c r="G1855">
-        <v>1.05</v>
-      </c>
-      <c r="H1855">
-        <v>1</v>
-      </c>
-      <c r="I1855">
+      <c r="F1855" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1855" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1855" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1855" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1856" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1856" s="3" t="s">
+      <c r="J1855" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1855" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1856" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="B1856" t="s">
+      <c r="B1856" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1856" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1856">
-        <v>1</v>
-      </c>
-      <c r="E1856">
-        <v>0.9</v>
-      </c>
-      <c r="F1856">
-        <v>0.9</v>
-      </c>
-      <c r="G1856">
-        <v>0.95</v>
-      </c>
-      <c r="H1856">
-        <v>0.9</v>
-      </c>
-      <c r="I1856">
+      <c r="C1856" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1856" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1856" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1856" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1856" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1856" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1856" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1857" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1857" s="3" t="s">
+      <c r="J1856" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1856" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1857" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="B1857" t="s">
+      <c r="B1857" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1857" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1857">
-        <v>0.95</v>
-      </c>
-      <c r="E1857">
-        <v>0.9</v>
-      </c>
-      <c r="F1857">
-        <v>0.95</v>
-      </c>
-      <c r="G1857">
-        <v>1.05</v>
-      </c>
-      <c r="H1857">
-        <v>0.9</v>
-      </c>
-      <c r="I1857">
+      <c r="C1857" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1857" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1857" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1857" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1857" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1857" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1857" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1858" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1858" s="3" t="s">
+      <c r="J1857" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1857" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1858" s="5" t="s">
         <v>1910</v>
       </c>
-      <c r="B1858" t="s">
+      <c r="B1858" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1858" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1858">
-        <v>0.9</v>
-      </c>
-      <c r="E1858">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1858">
-        <v>0.9</v>
-      </c>
-      <c r="G1858">
-        <v>1.05</v>
-      </c>
-      <c r="H1858">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1858">
+      <c r="C1858" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1858" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1858" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1858" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1858" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1858" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1858" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1859" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1859" s="3" t="s">
+    <row r="1859" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1859" s="5" t="s">
         <v>1911</v>
       </c>
-      <c r="B1859" t="s">
+      <c r="B1859" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1859" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1859">
-        <v>1.05</v>
-      </c>
-      <c r="E1859">
+      <c r="C1859" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1859" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1859" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1859">
-        <v>0.9</v>
-      </c>
-      <c r="G1859">
-        <v>0.9</v>
-      </c>
-      <c r="H1859">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1859">
+      <c r="F1859" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1859" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1859" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1859" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1860" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1860" s="3" t="s">
+    <row r="1860" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1860" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="B1860" t="s">
+      <c r="B1860" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1860" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1860">
-        <v>0.9</v>
-      </c>
-      <c r="E1860">
+      <c r="C1860" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1860" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1860" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1860">
-        <v>1</v>
-      </c>
-      <c r="G1860">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1860">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1860">
+      <c r="F1860" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1860" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1860" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1860" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1861" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1861" s="3" t="s">
+    <row r="1861" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1861" s="5" t="s">
         <v>1913</v>
       </c>
-      <c r="B1861" t="s">
+      <c r="B1861" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1861" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1861">
-        <v>0.95</v>
-      </c>
-      <c r="E1861">
+      <c r="C1861" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1861" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1861" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1861">
-        <v>0.95</v>
-      </c>
-      <c r="G1861">
-        <v>0.9</v>
-      </c>
-      <c r="H1861">
-        <v>1</v>
-      </c>
-      <c r="I1861">
+      <c r="F1861" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1861" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1861" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1861" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1862" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1862" s="3" t="s">
+      <c r="J1861" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1861" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1862" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="B1862" t="s">
+      <c r="B1862" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1862" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1862">
-        <v>1</v>
-      </c>
-      <c r="E1862">
-        <v>0.9</v>
-      </c>
-      <c r="F1862">
-        <v>0.9</v>
-      </c>
-      <c r="G1862">
-        <v>0.95</v>
-      </c>
-      <c r="H1862">
-        <v>0.95</v>
-      </c>
-      <c r="I1862">
+      <c r="C1862" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1862" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1862" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1862" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1862" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1862" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1862" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1863" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1863" s="3" t="s">
+      <c r="J1862" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1862" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1863" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="B1863" t="s">
+      <c r="B1863" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1863" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1863">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1863">
+      <c r="C1863" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1863" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1863" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1863">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1863">
-        <v>1</v>
-      </c>
-      <c r="H1863">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1863">
+      <c r="F1863" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1863" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1863" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1863" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1864" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1864" s="3" t="s">
+      <c r="J1863" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1863" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1864" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="B1864" t="s">
+      <c r="B1864" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1864" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1864">
-        <v>1</v>
-      </c>
-      <c r="E1864">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1864">
-        <v>0.95</v>
-      </c>
-      <c r="G1864">
-        <v>1</v>
-      </c>
-      <c r="H1864">
-        <v>0.9</v>
-      </c>
-      <c r="I1864">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1865" s="3" t="s">
+      <c r="C1864" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1864" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1864" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1864" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1864" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1864" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1864" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1864" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1864" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1865" s="5" t="s">
         <v>1917</v>
       </c>
-      <c r="B1865" t="s">
+      <c r="B1865" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1865" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1865">
-        <v>1.05</v>
-      </c>
-      <c r="E1865">
-        <v>0.9</v>
-      </c>
-      <c r="F1865">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1865">
-        <v>0.9</v>
-      </c>
-      <c r="H1865">
-        <v>0.95</v>
-      </c>
-      <c r="I1865">
+      <c r="C1865" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1865" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1865" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1865" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1865" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1865" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1865" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1866" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1866" s="3" t="s">
+    <row r="1866" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1866" s="5" t="s">
         <v>1918</v>
       </c>
-      <c r="B1866" t="s">
+      <c r="B1866" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1866" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1866">
-        <v>0.95</v>
-      </c>
-      <c r="E1866">
+      <c r="C1866" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1866" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1866" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1866">
-        <v>1</v>
-      </c>
-      <c r="G1866">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1866">
-        <v>0.95</v>
-      </c>
-      <c r="I1866">
+      <c r="F1866" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1866" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1866" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1866" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1867" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1867" s="3" t="s">
+      <c r="J1866" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1866" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1867" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="B1867" t="s">
+      <c r="B1867" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1867" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1867">
-        <v>0.95</v>
-      </c>
-      <c r="E1867">
+      <c r="C1867" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1867" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1867" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1867">
-        <v>0.9</v>
-      </c>
-      <c r="G1867">
-        <v>0.9</v>
-      </c>
-      <c r="H1867">
-        <v>0.9</v>
-      </c>
-      <c r="I1867">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1868" s="3" t="s">
+      <c r="F1867" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1867" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1867" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1867" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1867" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1867" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1868" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="B1868" t="s">
+      <c r="B1868" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1868" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1868">
-        <v>1.05</v>
-      </c>
-      <c r="E1868">
-        <v>0.9</v>
-      </c>
-      <c r="F1868">
-        <v>1</v>
-      </c>
-      <c r="G1868">
-        <v>0.95</v>
-      </c>
-      <c r="H1868">
-        <v>1.05</v>
-      </c>
-      <c r="I1868">
+      <c r="C1868" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1868" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1868" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1868" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1868" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1868" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1868" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1869" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1869" s="3" t="s">
+    <row r="1869" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1869" s="5" t="s">
         <v>1921</v>
       </c>
-      <c r="B1869" t="s">
+      <c r="B1869" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1869" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1869">
-        <v>1</v>
-      </c>
-      <c r="E1869">
+      <c r="C1869" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1869" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1869" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1869">
-        <v>0.9</v>
-      </c>
-      <c r="G1869">
-        <v>0.9</v>
-      </c>
-      <c r="H1869">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1869">
+      <c r="F1869" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1869" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1869" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1869" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1870" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1870" s="3" t="s">
+    <row r="1870" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1870" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="B1870" t="s">
+      <c r="B1870" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1870" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1870">
-        <v>1</v>
-      </c>
-      <c r="E1870">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1870">
-        <v>0.9</v>
-      </c>
-      <c r="G1870">
-        <v>1</v>
-      </c>
-      <c r="H1870">
-        <v>1.05</v>
-      </c>
-      <c r="I1870">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1871" s="3" t="s">
+      <c r="C1870" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1870" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1870" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1870" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1870" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1870" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1870" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1871" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="B1871" t="s">
+      <c r="B1871" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1871" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1871">
-        <v>0.95</v>
-      </c>
-      <c r="E1871">
+      <c r="C1871" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1871" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1871" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1871">
-        <v>1</v>
-      </c>
-      <c r="G1871">
-        <v>0.9</v>
-      </c>
-      <c r="H1871">
-        <v>1.05</v>
-      </c>
-      <c r="I1871">
+      <c r="F1871" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1871" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1871" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1871" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1872" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1872" s="3" t="s">
+    <row r="1872" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1872" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="B1872" t="s">
+      <c r="B1872" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1872" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1872">
-        <v>1</v>
-      </c>
-      <c r="E1872">
+      <c r="C1872" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1872" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1872" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1872">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1872">
-        <v>1.05</v>
-      </c>
-      <c r="H1872">
-        <v>1</v>
-      </c>
-      <c r="I1872">
+      <c r="F1872" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1872" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1872" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1872" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1873" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1873" s="3" t="s">
+      <c r="J1872" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1872" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1873" s="5" t="s">
         <v>1925</v>
       </c>
-      <c r="B1873" t="s">
+      <c r="B1873" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1873" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1873">
-        <v>0.95</v>
-      </c>
-      <c r="E1873">
+      <c r="C1873" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1873" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1873" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1873">
-        <v>1</v>
-      </c>
-      <c r="G1873">
-        <v>0.9</v>
-      </c>
-      <c r="H1873">
-        <v>0.9</v>
-      </c>
-      <c r="I1873">
+      <c r="F1873" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1873" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1873" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1873" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1874" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1874" s="3" t="s">
+    <row r="1874" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1874" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="B1874" t="s">
+      <c r="B1874" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1874" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1874">
-        <v>1</v>
-      </c>
-      <c r="E1874">
+      <c r="C1874" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1874" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1874" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1874">
-        <v>0.95</v>
-      </c>
-      <c r="G1874">
-        <v>1</v>
-      </c>
-      <c r="H1874">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1874">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1875" s="3" t="s">
+      <c r="F1874" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1874" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1874" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1874" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1875" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="B1875" t="s">
+      <c r="B1875" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1875" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1875">
-        <v>1.05</v>
-      </c>
-      <c r="E1875">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1875">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1875">
-        <v>1.05</v>
-      </c>
-      <c r="H1875">
-        <v>1.05</v>
-      </c>
-      <c r="I1875">
+      <c r="C1875" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1875" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1875" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1875" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1875" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1875" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1875" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1876" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1876" s="3" t="s">
+      <c r="J1875" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1875" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1876" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="B1876" t="s">
+      <c r="B1876" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1876" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1876">
-        <v>0.9</v>
-      </c>
-      <c r="E1876">
+      <c r="C1876" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1876" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1876" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1876">
-        <v>1</v>
-      </c>
-      <c r="G1876">
-        <v>1</v>
-      </c>
-      <c r="H1876">
-        <v>1</v>
-      </c>
-      <c r="I1876">
+      <c r="F1876" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1876" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1876" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1876" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1877" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1877" s="3" t="s">
+      <c r="J1876" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1876" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1877" s="5" t="s">
         <v>1929</v>
       </c>
-      <c r="B1877" t="s">
+      <c r="B1877" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1877" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1877">
-        <v>0.9</v>
-      </c>
-      <c r="E1877">
+      <c r="C1877" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1877" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1877" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1877">
-        <v>0.95</v>
-      </c>
-      <c r="G1877">
-        <v>1</v>
-      </c>
-      <c r="H1877">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1877">
+      <c r="F1877" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1877" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1877" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1877" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1878" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1878" s="3" t="s">
+    <row r="1878" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1878" s="5" t="s">
         <v>1930</v>
       </c>
-      <c r="B1878" t="s">
+      <c r="B1878" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1878" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1878">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1878">
-        <v>0.9</v>
-      </c>
-      <c r="F1878">
-        <v>1</v>
-      </c>
-      <c r="G1878">
-        <v>1</v>
-      </c>
-      <c r="H1878">
-        <v>0.9</v>
-      </c>
-      <c r="I1878">
+      <c r="C1878" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1878" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1878" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1878" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1878" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1878" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1878" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1879" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1879" s="3" t="s">
+      <c r="J1878" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1878" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1879" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="B1879" t="s">
+      <c r="B1879" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1879" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1879">
-        <v>0.9</v>
-      </c>
-      <c r="E1879">
-        <v>0.9</v>
-      </c>
-      <c r="F1879">
-        <v>1</v>
-      </c>
-      <c r="G1879">
-        <v>0.9</v>
-      </c>
-      <c r="H1879">
-        <v>1</v>
-      </c>
-      <c r="I1879">
+      <c r="C1879" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1879" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1879" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1879" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1879" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1879" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1879" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1880" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1880" s="3" t="s">
+    <row r="1880" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1880" s="5" t="s">
         <v>1932</v>
       </c>
-      <c r="B1880" t="s">
+      <c r="B1880" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1880" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1880">
-        <v>1.05</v>
-      </c>
-      <c r="E1880">
+      <c r="C1880" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1880" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1880" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1880">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1880">
-        <v>1.05</v>
-      </c>
-      <c r="H1880">
-        <v>1.05</v>
-      </c>
-      <c r="I1880">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1881" s="3" t="s">
+      <c r="F1880" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1880" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1880" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1880" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1881" s="5" t="s">
         <v>1933</v>
       </c>
-      <c r="B1881" t="s">
+      <c r="B1881" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1881" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1881">
-        <v>0.9</v>
-      </c>
-      <c r="E1881">
+      <c r="C1881" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1881" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1881" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1881">
-        <v>1.05</v>
-      </c>
-      <c r="G1881">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1881">
-        <v>1</v>
-      </c>
-      <c r="I1881">
+      <c r="F1881" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1881" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1881" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1881" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1882" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1882" s="3" t="s">
+    <row r="1882" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1882" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="B1882" t="s">
+      <c r="B1882" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1882" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1882">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1882">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1882">
-        <v>1.05</v>
-      </c>
-      <c r="G1882">
-        <v>0.95</v>
-      </c>
-      <c r="H1882">
-        <v>1</v>
-      </c>
-      <c r="I1882">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1883" s="3" t="s">
+      <c r="C1882" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1882" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1882" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1882" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1882" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1882" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1882" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1882" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1882" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1883" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="B1883" t="s">
+      <c r="B1883" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1883" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1883">
-        <v>0.9</v>
-      </c>
-      <c r="E1883">
-        <v>0.9</v>
-      </c>
-      <c r="F1883">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1883">
-        <v>1.05</v>
-      </c>
-      <c r="H1883">
-        <v>1.05</v>
-      </c>
-      <c r="I1883">
+      <c r="C1883" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1883" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1883" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1883" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1883" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1883" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1883" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1884" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1884" s="3" t="s">
+      <c r="J1883" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1883" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1884" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="B1884" t="s">
+      <c r="B1884" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1884" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1884">
-        <v>0.9</v>
-      </c>
-      <c r="E1884">
-        <v>0.9</v>
-      </c>
-      <c r="F1884">
-        <v>1</v>
-      </c>
-      <c r="G1884">
-        <v>0.95</v>
-      </c>
-      <c r="H1884">
-        <v>1</v>
-      </c>
-      <c r="I1884">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1885" s="3" t="s">
+      <c r="C1884" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1884" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1884" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1884" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1884" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1884" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1884" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1884" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1884" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1885" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="B1885" t="s">
+      <c r="B1885" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1885" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1885">
-        <v>0.9</v>
-      </c>
-      <c r="E1885">
+      <c r="C1885" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1885" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1885" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1885">
-        <v>0.9</v>
-      </c>
-      <c r="G1885">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1885">
-        <v>1</v>
-      </c>
-      <c r="I1885">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1886" s="3" t="s">
+      <c r="F1885" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1885" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1885" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1885" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1886" s="5" t="s">
         <v>1938</v>
       </c>
-      <c r="B1886" t="s">
+      <c r="B1886" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1886" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1886">
-        <v>0.95</v>
-      </c>
-      <c r="E1886">
-        <v>0.9</v>
-      </c>
-      <c r="F1886">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1886">
-        <v>0.9</v>
-      </c>
-      <c r="H1886">
-        <v>1</v>
-      </c>
-      <c r="I1886">
+      <c r="C1886" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1886" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1886" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1886" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1886" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1886" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1886" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1887" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1887" s="3" t="s">
+      <c r="J1886" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1886" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1887" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="B1887" t="s">
+      <c r="B1887" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1887" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1887">
-        <v>0.9</v>
-      </c>
-      <c r="E1887">
+      <c r="C1887" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1887" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1887" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1887">
-        <v>1.05</v>
-      </c>
-      <c r="G1887">
-        <v>0.95</v>
-      </c>
-      <c r="H1887">
-        <v>0.9</v>
-      </c>
-      <c r="I1887">
+      <c r="F1887" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1887" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1887" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1887" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1888" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1888" s="3" t="s">
+    <row r="1888" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1888" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="B1888" t="s">
+      <c r="B1888" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1888" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1888">
-        <v>1.05</v>
-      </c>
-      <c r="E1888">
-        <v>0.9</v>
-      </c>
-      <c r="F1888">
-        <v>1.05</v>
-      </c>
-      <c r="G1888">
-        <v>1</v>
-      </c>
-      <c r="H1888">
-        <v>1.05</v>
-      </c>
-      <c r="I1888">
+      <c r="C1888" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1888" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1888" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1888" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1888" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1888" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1888" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1889" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1889" s="3" t="s">
+      <c r="J1888" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1888" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1889" s="5" t="s">
         <v>1941</v>
       </c>
-      <c r="B1889" t="s">
+      <c r="B1889" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1889" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1889">
-        <v>1</v>
-      </c>
-      <c r="E1889">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1889">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1889">
-        <v>0.95</v>
-      </c>
-      <c r="H1889">
-        <v>1.05</v>
-      </c>
-      <c r="I1889">
+      <c r="C1889" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1889" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1889" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1889" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1889" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1889" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1889" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1890" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1890" s="3" t="s">
+    <row r="1890" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1890" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="B1890" t="s">
+      <c r="B1890" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1890" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1890">
-        <v>0.95</v>
-      </c>
-      <c r="E1890">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1890">
-        <v>0.9</v>
-      </c>
-      <c r="G1890">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1890">
-        <v>1.05</v>
-      </c>
-      <c r="I1890">
+      <c r="C1890" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1890" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1890" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1890" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1890" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1890" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1890" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1891" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1891" s="3" t="s">
+    <row r="1891" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1891" s="5" t="s">
         <v>1943</v>
       </c>
-      <c r="B1891" t="s">
+      <c r="B1891" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1891" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1891">
-        <v>1</v>
-      </c>
-      <c r="E1891">
+      <c r="C1891" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1891" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1891" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1891">
-        <v>1.05</v>
-      </c>
-      <c r="G1891">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1891">
-        <v>1.05</v>
-      </c>
-      <c r="I1891">
+      <c r="F1891" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1891" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1891" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1891" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1892" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1892" s="3" t="s">
+      <c r="J1891" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1891" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1892" s="5" t="s">
         <v>1944</v>
       </c>
-      <c r="B1892" t="s">
+      <c r="B1892" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1892" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1892">
-        <v>0.9</v>
-      </c>
-      <c r="E1892">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1892">
-        <v>1</v>
-      </c>
-      <c r="G1892">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1892">
-        <v>0.95</v>
-      </c>
-      <c r="I1892">
+      <c r="C1892" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1892" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1892" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1892" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1892" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1892" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1892" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1893" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1893" s="3" t="s">
+      <c r="J1892" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1892" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1893" s="5" t="s">
         <v>1945</v>
       </c>
-      <c r="B1893" t="s">
+      <c r="B1893" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1893" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1893">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1893">
+      <c r="C1893" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1893" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1893" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1893">
-        <v>1.05</v>
-      </c>
-      <c r="G1893">
-        <v>0.95</v>
-      </c>
-      <c r="H1893">
-        <v>0.95</v>
-      </c>
-      <c r="I1893">
+      <c r="F1893" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1893" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1893" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1893" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1894" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1894" s="3" t="s">
+    <row r="1894" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1894" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B1894" t="s">
+      <c r="B1894" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1894" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1894">
-        <v>1</v>
-      </c>
-      <c r="E1894">
-        <v>0.9</v>
-      </c>
-      <c r="F1894">
-        <v>1.05</v>
-      </c>
-      <c r="G1894">
-        <v>1.05</v>
-      </c>
-      <c r="H1894">
-        <v>1.05</v>
-      </c>
-      <c r="I1894">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1895" s="3" t="s">
+      <c r="C1894" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1894" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1894" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1894" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1894" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1894" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1894" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1895" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="B1895" t="s">
+      <c r="B1895" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1895" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1895">
-        <v>1</v>
-      </c>
-      <c r="E1895">
-        <v>0.9</v>
-      </c>
-      <c r="F1895">
-        <v>0.9</v>
-      </c>
-      <c r="G1895">
-        <v>1.05</v>
-      </c>
-      <c r="H1895">
-        <v>0.95</v>
-      </c>
-      <c r="I1895">
+      <c r="C1895" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1895" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1895" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1895" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1895" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1895" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1895" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1896" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1896" s="3" t="s">
+    <row r="1896" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1896" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="B1896" t="s">
+      <c r="B1896" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1896" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1896">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1896">
+      <c r="C1896" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1896" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1896" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1896">
-        <v>0.95</v>
-      </c>
-      <c r="G1896">
-        <v>0.9</v>
-      </c>
-      <c r="H1896">
-        <v>0.95</v>
-      </c>
-      <c r="I1896">
+      <c r="F1896" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1896" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1896" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1896" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1897" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1897" s="3" t="s">
+      <c r="J1896" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1896" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1897" s="5" t="s">
         <v>1949</v>
       </c>
-      <c r="B1897" t="s">
+      <c r="B1897" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1897" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1897">
-        <v>0.9</v>
-      </c>
-      <c r="E1897">
+      <c r="C1897" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1897" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1897" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1897">
-        <v>1</v>
-      </c>
-      <c r="G1897">
-        <v>0.9</v>
-      </c>
-      <c r="H1897">
-        <v>0.9</v>
-      </c>
-      <c r="I1897">
+      <c r="F1897" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1897" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1897" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1897" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1898" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1898" s="3" t="s">
+    <row r="1898" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1898" s="5" t="s">
         <v>1950</v>
       </c>
-      <c r="B1898" t="s">
+      <c r="B1898" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1898" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1898">
-        <v>1.05</v>
-      </c>
-      <c r="E1898">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1898">
-        <v>1</v>
-      </c>
-      <c r="G1898">
-        <v>1.05</v>
-      </c>
-      <c r="H1898">
-        <v>1.05</v>
-      </c>
-      <c r="I1898">
+      <c r="C1898" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1898" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1898" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1898" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1898" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1898" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1898" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="1899" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1899" s="3" t="s">
+      <c r="J1898" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1898" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1899" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="B1899" t="s">
+      <c r="B1899" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1899" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1899">
-        <v>0.9</v>
-      </c>
-      <c r="E1899">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1899">
-        <v>1.05</v>
-      </c>
-      <c r="G1899">
-        <v>1</v>
-      </c>
-      <c r="H1899">
-        <v>1.05</v>
-      </c>
-      <c r="I1899">
+      <c r="C1899" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1899" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1899" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1899" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1899" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1899" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1899" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1900" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1900" s="3" t="s">
+    <row r="1900" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1900" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="B1900" t="s">
+      <c r="B1900" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1900" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1900">
-        <v>0.9</v>
-      </c>
-      <c r="E1900">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1900">
-        <v>0.9</v>
-      </c>
-      <c r="G1900">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1900">
-        <v>1</v>
-      </c>
-      <c r="I1900">
+      <c r="C1900" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1900" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1900" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1900" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1900" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1900" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1900" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1901" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1901" s="3" t="s">
+    <row r="1901" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1901" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="B1901" t="s">
+      <c r="B1901" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1901" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1901">
-        <v>0.95</v>
-      </c>
-      <c r="E1901">
-        <v>0.9</v>
-      </c>
-      <c r="F1901">
-        <v>1.05</v>
-      </c>
-      <c r="G1901">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1901">
-        <v>0.9</v>
-      </c>
-      <c r="I1901">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1902" s="3" t="s">
+      <c r="C1901" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1901" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1901" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1901" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1901" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1901" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1901" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1902" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="B1902" t="s">
+      <c r="B1902" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1902" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1902">
-        <v>0.95</v>
-      </c>
-      <c r="E1902">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1902">
-        <v>1</v>
-      </c>
-      <c r="G1902">
-        <v>1</v>
-      </c>
-      <c r="H1902">
-        <v>0.95</v>
-      </c>
-      <c r="I1902">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1903" s="3" t="s">
+      <c r="C1902" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1902" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1902" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1902" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1902" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1902" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1902" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1902" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1902" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1903" s="5" t="s">
         <v>1955</v>
       </c>
-      <c r="B1903" t="s">
+      <c r="B1903" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1903" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1903">
-        <v>0.9</v>
-      </c>
-      <c r="E1903">
+      <c r="C1903" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1903" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1903" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1903">
-        <v>0.95</v>
-      </c>
-      <c r="G1903">
-        <v>0.95</v>
-      </c>
-      <c r="H1903">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1903">
+      <c r="F1903" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1903" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1903" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1903" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1904" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1904" s="3" t="s">
+      <c r="J1903" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1903" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1904" s="5" t="s">
         <v>1956</v>
       </c>
-      <c r="B1904" t="s">
+      <c r="B1904" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1904" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1904">
-        <v>0.9</v>
-      </c>
-      <c r="E1904">
+      <c r="C1904" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1904" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1904" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1904">
-        <v>0.95</v>
-      </c>
-      <c r="G1904">
-        <v>0.9</v>
-      </c>
-      <c r="H1904">
-        <v>1.05</v>
-      </c>
-      <c r="I1904">
+      <c r="F1904" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1904" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1904" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1904" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1905" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1905" s="3" t="s">
+      <c r="J1904" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1904" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1905" s="5" t="s">
         <v>1957</v>
       </c>
-      <c r="B1905" t="s">
+      <c r="B1905" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1905" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1905">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1905">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1905">
-        <v>1.05</v>
-      </c>
-      <c r="G1905">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1905">
-        <v>1.05</v>
-      </c>
-      <c r="I1905">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1906" s="3" t="s">
+      <c r="C1905" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1905" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1905" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1905" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1905" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1905" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1905" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1905" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1905" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1906" s="5" t="s">
         <v>1958</v>
       </c>
-      <c r="B1906" t="s">
+      <c r="B1906" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1906" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1906">
-        <v>1.05</v>
-      </c>
-      <c r="E1906">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1906">
-        <v>0.95</v>
-      </c>
-      <c r="G1906">
-        <v>1</v>
-      </c>
-      <c r="H1906">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1906">
+      <c r="C1906" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1906" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1906" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1906" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1906" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1906" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1906" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1907" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1907" s="3" t="s">
+      <c r="J1906" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1906" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1907" s="5" t="s">
         <v>1959</v>
       </c>
-      <c r="B1907" t="s">
+      <c r="B1907" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1907" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1907">
-        <v>1</v>
-      </c>
-      <c r="E1907">
+      <c r="C1907" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1907" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1907" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1907">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1907">
-        <v>1.05</v>
-      </c>
-      <c r="H1907">
-        <v>1.05</v>
-      </c>
-      <c r="I1907">
+      <c r="F1907" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1907" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1907" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1907" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1908" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1908" s="3" t="s">
+    <row r="1908" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1908" s="5" t="s">
         <v>1960</v>
       </c>
-      <c r="B1908" t="s">
+      <c r="B1908" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1908" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1908">
-        <v>0.9</v>
-      </c>
-      <c r="E1908">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1908">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1908">
-        <v>0.9</v>
-      </c>
-      <c r="H1908">
-        <v>1.05</v>
-      </c>
-      <c r="I1908">
+      <c r="C1908" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1908" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1908" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1908" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1908" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1908" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1908" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1909" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1909" s="3" t="s">
+    <row r="1909" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1909" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="B1909" t="s">
+      <c r="B1909" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1909" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1909">
-        <v>1.05</v>
-      </c>
-      <c r="E1909">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1909">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1909">
-        <v>1.05</v>
-      </c>
-      <c r="H1909">
-        <v>0.9</v>
-      </c>
-      <c r="I1909">
+      <c r="C1909" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1909" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="E1909" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1909" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1909" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1909" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1909" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1910" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1910" s="3" t="s">
+      <c r="J1909" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1909" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1910" s="5" t="s">
         <v>1962</v>
       </c>
-      <c r="B1910" t="s">
+      <c r="B1910" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1910" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1910">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1910">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1910">
-        <v>1</v>
-      </c>
-      <c r="G1910">
-        <v>0.9</v>
-      </c>
-      <c r="H1910">
-        <v>0.9</v>
-      </c>
-      <c r="I1910">
+      <c r="C1910" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1910" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1910" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1910" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1910" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1910" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1910" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1911" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1911" s="3" t="s">
+    <row r="1911" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1911" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="B1911" t="s">
+      <c r="B1911" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1911" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1911">
-        <v>0.9</v>
-      </c>
-      <c r="E1911">
+      <c r="C1911" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1911" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1911" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1911">
-        <v>0.95</v>
-      </c>
-      <c r="G1911">
-        <v>1.05</v>
-      </c>
-      <c r="H1911">
-        <v>0.9</v>
-      </c>
-      <c r="I1911">
+      <c r="F1911" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1911" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1911" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1911" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="1912" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1912" s="3" t="s">
+    <row r="1912" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1912" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="B1912" t="s">
+      <c r="B1912" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1912" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1912">
-        <v>0.9</v>
-      </c>
-      <c r="E1912">
+      <c r="C1912" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1912" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1912" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1912">
-        <v>1.05</v>
-      </c>
-      <c r="G1912">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1912">
-        <v>0.95</v>
-      </c>
-      <c r="I1912">
+      <c r="F1912" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1912" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1912" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1912" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1913" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1913" s="3" t="s">
+    <row r="1913" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1913" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="B1913" t="s">
+      <c r="B1913" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1913" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1913">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1913">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1913">
-        <v>0.9</v>
-      </c>
-      <c r="G1913">
-        <v>0.95</v>
-      </c>
-      <c r="H1913">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1913">
+      <c r="C1913" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1913" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1913" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1913" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1913" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1913" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1913" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1914" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1914" s="3" t="s">
+    <row r="1914" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1914" s="5" t="s">
         <v>1966</v>
       </c>
-      <c r="B1914" t="s">
+      <c r="B1914" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1914" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1914">
-        <v>0.95</v>
-      </c>
-      <c r="E1914">
+      <c r="C1914" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1914" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1914" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1914">
-        <v>0.95</v>
-      </c>
-      <c r="G1914">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1914">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1914">
+      <c r="F1914" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1914" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1914" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1914" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1915" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1915" s="3" t="s">
+    <row r="1915" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1915" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="B1915" t="s">
+      <c r="B1915" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1915" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1915">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1915">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1915">
-        <v>1</v>
-      </c>
-      <c r="G1915">
-        <v>0.95</v>
-      </c>
-      <c r="H1915">
-        <v>0.9</v>
-      </c>
-      <c r="I1915">
+      <c r="C1915" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1915" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1915" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1915" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1915" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1915" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1915" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="1916" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1916" s="3" t="s">
+      <c r="J1915" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1915" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1916" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="B1916" t="s">
+      <c r="B1916" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1916" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1916">
-        <v>0.95</v>
-      </c>
-      <c r="E1916">
+      <c r="C1916" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1916" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1916" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1916">
-        <v>1</v>
-      </c>
-      <c r="G1916">
-        <v>1.05</v>
-      </c>
-      <c r="H1916">
-        <v>1</v>
-      </c>
-      <c r="I1916">
+      <c r="F1916" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1916" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1916" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1916" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1917" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1917" s="3" t="s">
+      <c r="J1916" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1916" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1917" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="B1917" t="s">
+      <c r="B1917" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1917" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1917">
-        <v>0.95</v>
-      </c>
-      <c r="E1917">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1917">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1917">
-        <v>1.05</v>
-      </c>
-      <c r="H1917">
-        <v>1</v>
-      </c>
-      <c r="I1917">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1918" s="3" t="s">
+      <c r="C1917" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1917" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1917" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1917" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1917" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1917" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1917" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1917" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1917" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1918" s="5" t="s">
         <v>1970</v>
       </c>
-      <c r="B1918" t="s">
+      <c r="B1918" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1918" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1918">
-        <v>0.9</v>
-      </c>
-      <c r="E1918">
-        <v>0.9</v>
-      </c>
-      <c r="F1918">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1918">
-        <v>0.9</v>
-      </c>
-      <c r="H1918">
-        <v>0.95</v>
-      </c>
-      <c r="I1918">
+      <c r="C1918" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1918" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1918" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1918" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1918" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1918" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1918" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="1919" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1919" s="3" t="s">
+      <c r="J1918" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1918" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1919" s="5" t="s">
         <v>1971</v>
       </c>
-      <c r="B1919" t="s">
+      <c r="B1919" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1919" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1919">
-        <v>0.9</v>
-      </c>
-      <c r="E1919">
+      <c r="C1919" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1919" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E1919" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1919">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1919">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1919">
-        <v>1.05</v>
-      </c>
-      <c r="I1919">
+      <c r="F1919" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1919" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1919" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1919" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1920" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1920" s="3" t="s">
+      <c r="J1919" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1919" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1920" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="B1920" t="s">
+      <c r="B1920" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1920" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1920">
-        <v>1</v>
-      </c>
-      <c r="E1920">
+      <c r="C1920" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1920" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1920" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1920">
-        <v>0.95</v>
-      </c>
-      <c r="G1920">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1920">
-        <v>0.95</v>
-      </c>
-      <c r="I1920">
+      <c r="F1920" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1920" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1920" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1920" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1921" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1921" s="3" t="s">
+    <row r="1921" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1921" s="5" t="s">
         <v>1973</v>
       </c>
-      <c r="B1921" t="s">
+      <c r="B1921" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1921" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1921">
-        <v>0.95</v>
-      </c>
-      <c r="E1921">
+      <c r="C1921" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1921" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E1921" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1921">
-        <v>0.9</v>
-      </c>
-      <c r="G1921">
-        <v>0.9</v>
-      </c>
-      <c r="H1921">
-        <v>1.05</v>
-      </c>
-      <c r="I1921">
+      <c r="F1921" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G1921" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H1921" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1921" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="1922" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1922" s="3" t="s">
+    <row r="1922" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1922" s="5" t="s">
         <v>1974</v>
       </c>
-      <c r="B1922" t="s">
+      <c r="B1922" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1922" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1922">
-        <v>1</v>
-      </c>
-      <c r="E1922">
+      <c r="C1922" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1922" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1922" s="5">
         <v>1.3</v>
       </c>
-      <c r="F1922">
-        <v>0.95</v>
-      </c>
-      <c r="G1922">
-        <v>0.95</v>
-      </c>
-      <c r="H1922">
-        <v>1.05</v>
-      </c>
-      <c r="I1922">
+      <c r="F1922" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1922" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1922" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I1922" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="1923" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1923" s="3" t="s">
+      <c r="J1922" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1922" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1923" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="B1923" t="s">
+      <c r="B1923" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1923" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1923">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1923">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1923">
-        <v>1</v>
-      </c>
-      <c r="G1923">
-        <v>1.05</v>
-      </c>
-      <c r="H1923">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1923">
+      <c r="C1923" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1923" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1923" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1923" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1923" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="H1923" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1923" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="1924" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1924" s="3" t="s">
+    <row r="1924" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1924" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="B1924" t="s">
+      <c r="B1924" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1924" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1924">
-        <v>1</v>
-      </c>
-      <c r="E1924">
+      <c r="C1924" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1924" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1924" s="5">
         <v>1.5</v>
       </c>
-      <c r="F1924">
-        <v>0.95</v>
-      </c>
-      <c r="G1924">
-        <v>0.95</v>
-      </c>
-      <c r="H1924">
-        <v>0.9</v>
-      </c>
-      <c r="I1924">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1925" s="3" t="s">
+      <c r="F1924" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G1924" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1924" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I1924" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1924" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1924" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1925" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="B1925" t="s">
+      <c r="B1925" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1925" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1925">
-        <v>1</v>
-      </c>
-      <c r="E1925">
+      <c r="C1925" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1925" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1925" s="5">
         <v>0.7</v>
       </c>
-      <c r="F1925">
-        <v>1.05</v>
-      </c>
-      <c r="G1925">
-        <v>0.95</v>
-      </c>
-      <c r="H1925">
-        <v>1</v>
-      </c>
-      <c r="I1925">
+      <c r="F1925" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1925" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H1925" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1925" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="1926" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1926" s="3" t="s">
+    <row r="1926" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1926" s="5" t="s">
         <v>1978</v>
       </c>
-      <c r="B1926" t="s">
+      <c r="B1926" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1926" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1926">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1926">
-        <v>0.9</v>
-      </c>
-      <c r="F1926">
-        <v>1.05</v>
-      </c>
-      <c r="G1926">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1926">
-        <v>0.95</v>
-      </c>
-      <c r="I1926">
+      <c r="C1926" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1926" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1926" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F1926" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="G1926" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1926" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I1926" s="5">
         <v>15</v>
       </c>
     </row>

--- a/Test/Testeo.xlsx
+++ b/Test/Testeo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8872" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8903" uniqueCount="2125">
   <si>
     <t>Nombre</t>
   </si>
@@ -6756,8 +6756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1040" workbookViewId="0">
-      <selection activeCell="A1057" sqref="A1057:XFD1057"/>
+    <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
+      <selection activeCell="G1147" sqref="G1147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -43808,144 +43808,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1059" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1059" s="5" t="s">
+    <row r="1059" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="B1059" s="5" t="s">
+      <c r="B1059" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1059" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1059" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1059" s="5">
+      <c r="C1059" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1059" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1059" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1059" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1059" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1059" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1059" s="5">
+      <c r="F1059" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1059" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1059" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1059" s="6">
         <v>5</v>
       </c>
-      <c r="J1059" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1059" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1060" s="5" t="s">
+      <c r="J1059" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1059" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="B1060" s="5" t="s">
+      <c r="B1060" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1060" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1060" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1060" s="5">
+      <c r="C1060" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1060" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1060" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1060" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1060" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1060" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1060" s="5">
+      <c r="F1060" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1060" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1060" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1060" s="6">
         <v>5</v>
       </c>
-      <c r="J1060" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1060" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1061" s="5" t="s">
+      <c r="J1060" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1060" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="B1061" s="5" t="s">
+      <c r="B1061" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1061" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1061" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1061" s="5">
+      <c r="C1061" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1061" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1061" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1061" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1061" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1061" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1061" s="5">
+      <c r="F1061" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1061" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1061" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1061" s="6">
         <v>15</v>
       </c>
-      <c r="J1061" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1061" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1062" s="5" t="s">
+      <c r="J1061" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1061" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="B1062" s="5" t="s">
+      <c r="B1062" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1062" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1062" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1062" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1062" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1062" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1062" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1062" s="5">
+      <c r="C1062" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1062" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1062" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1062" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1062" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1062" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1062" s="6">
         <v>5</v>
       </c>
-      <c r="J1062" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1062" s="5">
-        <v>0</v>
+      <c r="J1062" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1062" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -43983,39 +43983,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1064" s="5" t="s">
+    <row r="1064" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="B1064" s="5" t="s">
+      <c r="B1064" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1064" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1064" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1064" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1064" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1064" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1064" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1064" s="5">
+      <c r="C1064" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1064" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1064" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1064" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1064" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1064" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1064" s="6">
         <v>15</v>
       </c>
-      <c r="J1064" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1064" s="5">
-        <v>0</v>
+      <c r="J1064" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1064" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44053,214 +44053,214 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1066" s="5" t="s">
+    <row r="1066" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="B1066" s="5" t="s">
+      <c r="B1066" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1066" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1066" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1066" s="5">
+      <c r="C1066" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1066" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1066" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1066" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1066" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1066" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1066" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1066" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1066" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1067" s="5" t="s">
+      <c r="F1066" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1066" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1066" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1066" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1066" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1066" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="B1067" s="5" t="s">
+      <c r="B1067" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1067" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1067" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1067" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1067" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1067" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1067" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1067" s="5">
+      <c r="C1067" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1067" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1067" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1067" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1067" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1067" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1067" s="6">
         <v>5</v>
       </c>
-      <c r="J1067" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1067" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1068" s="5" t="s">
+      <c r="J1067" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1067" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="B1068" s="5" t="s">
+      <c r="B1068" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1068" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1068" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1068" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1068" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1068" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1068" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1068" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1068" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1068" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1069" s="5" t="s">
+      <c r="C1068" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1068" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1068" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1068" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1068" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1068" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1068" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1068" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1068" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="B1069" s="5" t="s">
+      <c r="B1069" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1069" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1069" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1069" s="5">
+      <c r="C1069" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1069" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1069" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1069" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1069" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1069" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1069" s="5">
+      <c r="F1069" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1069" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1069" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1069" s="6">
         <v>15</v>
       </c>
-      <c r="J1069" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1069" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1070" s="5" t="s">
+      <c r="J1069" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1069" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="B1070" s="5" t="s">
+      <c r="B1070" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1070" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1070" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1070" s="5">
+      <c r="C1070" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1070" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1070" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1070" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1070" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1070" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1070" s="5">
+      <c r="F1070" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1070" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1070" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1070" s="6">
         <v>15</v>
       </c>
-      <c r="J1070" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1070" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1071" s="5" t="s">
+      <c r="J1070" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1070" s="6" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="B1071" s="5" t="s">
+      <c r="B1071" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1071" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1071" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1071" s="5">
+      <c r="C1071" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1071" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1071" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1071" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1071" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1071" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1071" s="5">
+      <c r="F1071" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1071" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1071" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1071" s="6">
         <v>5</v>
       </c>
-      <c r="J1071" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1071" s="5">
-        <v>0</v>
+      <c r="J1071" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1071" s="6" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="1072" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44298,39 +44298,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1073" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1073" s="5" t="s">
+    <row r="1073" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="B1073" s="5" t="s">
+      <c r="B1073" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1073" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1073" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1073" s="5">
+      <c r="C1073" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1073" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1073" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1073" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1073" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1073" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1073" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1073" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1073" s="5">
-        <v>0</v>
+      <c r="F1073" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1073" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1073" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1073" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1073" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1073" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1074" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44361,221 +44361,221 @@
       <c r="I1074" s="6">
         <v>20</v>
       </c>
-      <c r="J1074" s="6" t="s">
-        <v>14</v>
+      <c r="J1074" s="6">
+        <v>0</v>
       </c>
       <c r="K1074" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1075" s="5" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="B1075" s="5" t="s">
+      <c r="B1075" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1075" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1075" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1075" s="5">
+      <c r="C1075" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1075" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1075" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1075" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1075" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1075" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1075" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1075" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1075" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1076" s="5" t="s">
+      <c r="F1075" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1075" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1075" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1075" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1075" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1075" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1076" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="B1076" s="5" t="s">
+      <c r="B1076" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1076" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1076" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1076" s="5">
+      <c r="C1076" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1076" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1076" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1076" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1076" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1076" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1076" s="5">
+      <c r="F1076" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1076" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1076" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1076" s="6">
         <v>20</v>
       </c>
-      <c r="J1076" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1076" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1077" s="5" t="s">
+      <c r="J1076" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1076" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1077" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="B1077" s="5" t="s">
+      <c r="B1077" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1077" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1077" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1077" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1077" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1077" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1077" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1077" s="5">
+      <c r="C1077" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1077" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1077" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1077" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1077" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1077" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1077" s="6">
         <v>20</v>
       </c>
-      <c r="J1077" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1077" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1078" s="5" t="s">
+      <c r="J1077" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1077" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1078" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="B1078" s="5" t="s">
+      <c r="B1078" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1078" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1078" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1078" s="5">
+      <c r="C1078" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1078" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1078" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1078" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1078" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1078" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1078" s="5">
+      <c r="F1078" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1078" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1078" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1078" s="6">
         <v>20</v>
       </c>
-      <c r="J1078" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1078" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1079" s="5" t="s">
+      <c r="J1078" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1078" s="6" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1079" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="B1079" s="5" t="s">
+      <c r="B1079" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1079" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1079" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1079" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1079" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1079" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1079" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1079" s="5">
+      <c r="C1079" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1079" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1079" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1079" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1079" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1079" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1079" s="6">
         <v>10</v>
       </c>
-      <c r="J1079" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1079" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1080" s="5" t="s">
+      <c r="J1079" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1079" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1080" s="6" t="s">
         <v>1133</v>
       </c>
-      <c r="B1080" s="5" t="s">
+      <c r="B1080" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1080" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1080" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1080" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1080" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1080" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1080" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1080" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1080" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1080" s="5">
-        <v>0</v>
+      <c r="C1080" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1080" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1080" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1080" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1080" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1080" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1080" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1080" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1080" s="6" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="1081" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44613,144 +44613,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1082" s="5" t="s">
+    <row r="1082" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1082" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="B1082" s="5" t="s">
+      <c r="B1082" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1082" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1082" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1082" s="5">
+      <c r="C1082" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1082" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1082" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1082" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1082" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1082" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1082" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1082" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1082" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1083" s="5" t="s">
+      <c r="F1082" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1082" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1082" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1082" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1082" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1082" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1083" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="B1083" s="5" t="s">
+      <c r="B1083" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1083" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1083" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1083" s="5">
+      <c r="C1083" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1083" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1083" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1083" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1083" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1083" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1083" s="5">
+      <c r="F1083" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1083" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1083" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1083" s="6">
         <v>20</v>
       </c>
-      <c r="J1083" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1083" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1084" s="5" t="s">
+      <c r="J1083" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1083" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1084" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="B1084" s="5" t="s">
+      <c r="B1084" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1084" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1084" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1084" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1084" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1084" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1084" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1084" s="5">
+      <c r="C1084" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1084" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1084" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1084" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1084" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1084" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1084" s="6">
         <v>20</v>
       </c>
-      <c r="J1084" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1084" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1085" s="5" t="s">
+      <c r="J1084" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1084" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1085" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="B1085" s="5" t="s">
+      <c r="B1085" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1085" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1085" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1085" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1085" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1085" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1085" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1085" s="5">
+      <c r="C1085" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1085" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1085" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1085" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1085" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1085" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1085" s="6">
         <v>20</v>
       </c>
-      <c r="J1085" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1085" s="5">
-        <v>0</v>
+      <c r="J1085" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1085" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44781,151 +44781,151 @@
       <c r="I1086" s="6">
         <v>15</v>
       </c>
-      <c r="J1086" s="6" t="s">
-        <v>14</v>
+      <c r="J1086" s="6">
+        <v>0</v>
       </c>
       <c r="K1086" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1087" s="5" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1087" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="B1087" s="5" t="s">
+      <c r="B1087" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1087" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1087" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1087" s="5">
+      <c r="C1087" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1087" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1087" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1087" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1087" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1087" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1087" s="5">
+      <c r="F1087" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1087" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1087" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1087" s="6">
         <v>15</v>
       </c>
-      <c r="J1087" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1087" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1088" s="5" t="s">
+      <c r="J1087" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1087" s="6" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1088" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="B1088" s="5" t="s">
+      <c r="B1088" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1088" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1088" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1088" s="5">
+      <c r="C1088" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1088" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1088" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1088" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1088" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1088" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1088" s="5">
+      <c r="F1088" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1088" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1088" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1088" s="6">
         <v>5</v>
       </c>
-      <c r="J1088" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1088" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1089" s="5" t="s">
+      <c r="J1088" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1088" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1089" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="B1089" s="5" t="s">
+      <c r="B1089" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1089" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1089" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1089" s="5">
+      <c r="C1089" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1089" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1089" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1089" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1089" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1089" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1089" s="5">
+      <c r="F1089" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1089" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1089" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1089" s="6">
         <v>20</v>
       </c>
-      <c r="J1089" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1089" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1090" s="5" t="s">
+      <c r="J1089" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1089" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1090" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="B1090" s="5" t="s">
+      <c r="B1090" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1090" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1090" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1090" s="5">
+      <c r="C1090" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1090" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1090" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1090" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1090" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1090" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1090" s="5">
+      <c r="F1090" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1090" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1090" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1090" s="6">
         <v>5</v>
       </c>
-      <c r="J1090" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1090" s="5">
-        <v>0</v>
+      <c r="J1090" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1090" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -44963,100 +44963,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1092" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1092" s="5" t="s">
+    <row r="1092" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1092" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="B1092" s="5" t="s">
+      <c r="B1092" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1092" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1092" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1092" s="5">
+      <c r="C1092" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1092" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1092" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1092" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1092" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1092" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1092" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1092" s="5" t="s">
+      <c r="F1092" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1092" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1092" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1092" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1092" s="6" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="1093" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1093" s="5" t="s">
+      <c r="K1092" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1093" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="B1093" s="5" t="s">
+      <c r="B1093" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1093" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1093" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1093" s="5">
+      <c r="C1093" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1093" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1093" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1093" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1093" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1093" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1093" s="5">
+      <c r="F1093" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1093" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1093" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1093" s="6">
         <v>5</v>
       </c>
-      <c r="J1093" s="5" t="s">
+      <c r="J1093" s="6" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="1094" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1094" s="5" t="s">
+      <c r="K1093" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1094" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="B1094" s="5" t="s">
+      <c r="B1094" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1094" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1094" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1094" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1094" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1094" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1094" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1094" s="5">
+      <c r="C1094" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1094" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1094" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1094" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1094" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1094" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1094" s="6">
         <v>10</v>
       </c>
-      <c r="J1094" s="5" t="s">
+      <c r="J1094" s="6" t="s">
         <v>2108</v>
+      </c>
+      <c r="K1094" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45094,132 +45103,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1096" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1096" s="5" t="s">
+    <row r="1096" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1096" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="B1096" s="5" t="s">
+      <c r="B1096" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1096" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1096" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1096" s="5">
+      <c r="C1096" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1096" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1096" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1096" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1096" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1096" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1096" s="5">
+      <c r="F1096" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1096" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1096" s="6">
         <v>20</v>
       </c>
-      <c r="J1096" s="5" t="s">
+      <c r="J1096" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1097" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1097" s="5" t="s">
+      <c r="K1096" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1097" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="B1097" s="5" t="s">
+      <c r="B1097" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1097" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1097" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1097" s="5">
+      <c r="C1097" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1097" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1097" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1097" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1097" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1097" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1097" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1097" s="5" t="s">
+      <c r="F1097" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1097" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1097" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1097" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1097" s="6" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="1098" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1098" s="5" t="s">
+      <c r="K1097" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1098" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="B1098" s="5" t="s">
+      <c r="B1098" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1098" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1098" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1098" s="5">
+      <c r="C1098" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1098" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1098" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1098" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1098" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1098" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1098" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1098" s="5" t="s">
+      <c r="F1098" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1098" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1098" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1098" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1098" s="6" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="1099" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1099" s="5" t="s">
+      <c r="K1098" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1099" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="B1099" s="5" t="s">
+      <c r="B1099" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1099" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1099" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1099" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1099" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1099" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1099" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1099" s="5">
+      <c r="C1099" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1099" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1099" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1099" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1099" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1099" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1099" s="6">
         <v>10</v>
       </c>
-      <c r="J1099" s="5" t="s">
+      <c r="J1099" s="6" t="s">
         <v>2100</v>
+      </c>
+      <c r="K1099" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45254,68 +45275,74 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1101" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1101" s="5" t="s">
+    <row r="1101" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1101" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="B1101" s="5" t="s">
+      <c r="B1101" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1101" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1101" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1101" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1101" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1101" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1101" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1101" s="5">
+      <c r="C1101" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1101" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1101" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1101" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1101" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1101" s="6">
         <v>5</v>
       </c>
-      <c r="J1101" s="5" t="s">
+      <c r="J1101" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1102" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1102" s="5" t="s">
+      <c r="K1101" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1102" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="B1102" s="5" t="s">
+      <c r="B1102" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1102" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1102" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1102" s="5">
+      <c r="C1102" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1102" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1102" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1102" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1102" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1102" s="5">
+      <c r="F1102" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1102" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1102" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1102" s="6">
         <v>15</v>
       </c>
-      <c r="J1102" s="5" t="s">
+      <c r="J1102" s="6" t="s">
         <v>2098</v>
+      </c>
+      <c r="K1102" s="6" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="1103" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45388,172 +45415,178 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1105" s="5" t="s">
+    <row r="1105" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1105" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="B1105" s="5" t="s">
+      <c r="B1105" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1105" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1105" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1105" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1105" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1105" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1105" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1105" s="5">
+      <c r="C1105" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1105" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1105" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1105" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1105" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1105" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1105" s="6">
         <v>10</v>
       </c>
-      <c r="J1105" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1105" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1106" s="5" t="s">
+      <c r="J1105" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1105" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1106" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="B1106" s="5" t="s">
+      <c r="B1106" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1106" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1106" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1106" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1106" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1106" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1106" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1106" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1106" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1106" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1107" s="5" t="s">
+      <c r="C1106" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1106" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1106" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1106" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1106" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1106" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1106" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1107" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="B1107" s="5" t="s">
+      <c r="B1107" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1107" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1107" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1107" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1107" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1107" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1107" s="5">
+      <c r="C1107" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1107" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1107" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1107" s="6">
         <v>5</v>
       </c>
-      <c r="J1107" s="5" t="s">
+      <c r="J1107" s="6" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="1108" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1108" s="5" t="s">
+      <c r="K1107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1108" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="B1108" s="5" t="s">
+      <c r="B1108" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1108" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1108" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1108" s="5">
+      <c r="C1108" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1108" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1108" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1108" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1108" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1108" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1108" s="5">
+      <c r="F1108" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1108" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1108" s="6">
         <v>15</v>
       </c>
-      <c r="J1108" s="5" t="s">
+      <c r="J1108" s="6" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="1109" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1109" s="5" t="s">
+      <c r="K1108" s="6" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1109" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="B1109" s="5" t="s">
+      <c r="B1109" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1109" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1109" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1109" s="5">
+      <c r="C1109" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1109" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1109" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1109" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1109" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1109" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1109" s="5">
+      <c r="F1109" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1109" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1109" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1109" s="6">
         <v>20</v>
       </c>
-      <c r="J1109" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1109" s="5">
+      <c r="J1109" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1109" s="6">
         <v>0</v>
       </c>
     </row>
@@ -45592,167 +45625,179 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1111" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1111" s="5" t="s">
+    <row r="1111" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1111" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="B1111" s="5" t="s">
+      <c r="B1111" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1111" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1111" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1111" s="5">
+      <c r="C1111" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1111" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1111" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1111" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1111" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1111" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1111" s="5">
+      <c r="F1111" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1111" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1111" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1111" s="6">
         <v>20</v>
       </c>
-      <c r="J1111" s="5" t="s">
+      <c r="J1111" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1112" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1112" s="5" t="s">
+      <c r="K1111" s="6" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1112" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="B1112" s="5" t="s">
+      <c r="B1112" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1112" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1112" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1112" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1112" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1112" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1112" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1112" s="5">
+      <c r="C1112" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1112" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1112" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1112" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1112" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1112" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1112" s="6">
         <v>20</v>
       </c>
-      <c r="J1112" s="5" t="s">
+      <c r="J1112" s="6" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="1113" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1113" s="5" t="s">
+      <c r="K1112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1113" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="B1113" s="5" t="s">
+      <c r="B1113" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1113" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1113" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1113" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1113" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1113" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1113" s="5">
+      <c r="C1113" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1113" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1113" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1113" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1113" s="6">
         <v>10</v>
       </c>
-      <c r="J1113" s="5" t="s">
+      <c r="J1113" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1114" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1114" s="5" t="s">
+      <c r="K1113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1114" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="B1114" s="5" t="s">
+      <c r="B1114" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1114" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1114" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1114" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1114" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1114" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1114" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1114" s="5">
+      <c r="C1114" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1114" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1114" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1114" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1114" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1114" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1114" s="6">
         <v>15</v>
       </c>
-      <c r="J1114" s="5" t="s">
+      <c r="J1114" s="6" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="1115" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1115" s="5" t="s">
+      <c r="K1114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1115" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="B1115" s="5" t="s">
+      <c r="B1115" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1115" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1115" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1115" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1115" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1115" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1115" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1115" s="5">
+      <c r="C1115" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1115" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1115" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1115" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1115" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1115" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1115" s="6">
         <v>5</v>
       </c>
-      <c r="J1115" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1115" s="5">
-        <v>0</v>
+      <c r="J1115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1115" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -45825,196 +45870,214 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1118" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1118" s="5" t="s">
+    <row r="1118" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1118" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="B1118" s="5" t="s">
+      <c r="B1118" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1118" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1118" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1118" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1118" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1118" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1118" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1118" s="5">
+      <c r="C1118" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1118" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1118" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1118" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1118" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1118" s="6">
         <v>15</v>
       </c>
-      <c r="J1118" s="5" t="s">
+      <c r="J1118" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1119" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1119" s="5" t="s">
+      <c r="K1118" s="6" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1119" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="B1119" s="5" t="s">
+      <c r="B1119" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1119" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1119" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1119" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1119" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1119" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1119" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1119" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1119" s="5" t="s">
+      <c r="C1119" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1119" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1119" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1119" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1119" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1119" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1119" s="6" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="1120" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1120" s="5" t="s">
+      <c r="K1119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1120" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="B1120" s="5" t="s">
+      <c r="B1120" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1120" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1120" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1120" s="5">
+      <c r="C1120" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1120" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1120" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1120" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1120" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1120" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1120" s="5">
+      <c r="F1120" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1120" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1120" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1120" s="6">
         <v>5</v>
       </c>
-      <c r="J1120" s="5" t="s">
+      <c r="J1120" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1121" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1121" s="5" t="s">
+      <c r="K1120" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1121" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="B1121" s="5" t="s">
+      <c r="B1121" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1121" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1121" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1121" s="5">
+      <c r="C1121" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1121" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1121" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1121" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1121" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1121" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1121" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1121" s="5" t="s">
+      <c r="F1121" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1121" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1121" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1121" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1121" s="6" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="1122" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1122" s="5" t="s">
+      <c r="K1121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1122" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="B1122" s="5" t="s">
+      <c r="B1122" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1122" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1122" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1122" s="5">
+      <c r="C1122" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1122" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1122" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1122" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1122" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1122" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1122" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1122" s="5" t="s">
+      <c r="F1122" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1122" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1122" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1122" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1122" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1123" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1123" s="5" t="s">
+      <c r="K1122" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1123" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="B1123" s="5" t="s">
+      <c r="B1123" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1123" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1123" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1123" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1123" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1123" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1123" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1123" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1123" s="5" t="s">
+      <c r="C1123" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1123" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1123" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1123" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1123" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1123" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1123" s="6" t="s">
         <v>2108</v>
+      </c>
+      <c r="K1123" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -46052,135 +46115,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1125" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1125" s="5" t="s">
+    <row r="1125" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1125" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="B1125" s="5" t="s">
+      <c r="B1125" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1125" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1125" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1125" s="5">
+      <c r="C1125" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1125" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1125" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1125" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1125" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1125" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1125" s="5">
+      <c r="F1125" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1125" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1125" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1125" s="6">
         <v>10</v>
       </c>
-      <c r="J1125" s="5" t="s">
+      <c r="J1125" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1126" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1126" s="5" t="s">
+      <c r="K1125" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1126" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="B1126" s="5" t="s">
+      <c r="B1126" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1126" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1126" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1126" s="5">
+      <c r="C1126" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1126" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1126" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1126" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1126" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1126" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1126" s="5">
+      <c r="F1126" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1126" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1126" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1126" s="6">
         <v>20</v>
       </c>
-      <c r="J1126" s="5" t="s">
+      <c r="J1126" s="6" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="1127" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1127" s="5" t="s">
+      <c r="K1126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1127" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="B1127" s="5" t="s">
+      <c r="B1127" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1127" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1127" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1127" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1127" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1127" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1127" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1127" s="5">
+      <c r="C1127" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1127" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1127" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1127" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1127" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1127" s="6">
         <v>5</v>
       </c>
-      <c r="J1127" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1127" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1128" s="5" t="s">
+      <c r="J1127" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1128" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="B1128" s="5" t="s">
+      <c r="B1128" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1128" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1128" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1128" s="5">
+      <c r="C1128" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1128" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1128" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1128" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1128" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1128" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1128" s="5">
+      <c r="F1128" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1128" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1128" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1128" s="6">
         <v>5</v>
       </c>
-      <c r="J1128" s="5" t="s">
+      <c r="J1128" s="6" t="s">
         <v>2100</v>
+      </c>
+      <c r="K1128" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -46218,204 +46290,213 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1130" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1130" s="5" t="s">
+    <row r="1130" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1130" s="6" t="s">
         <v>1183</v>
       </c>
-      <c r="B1130" s="5" t="s">
+      <c r="B1130" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1130" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1130" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1130" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1130" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1130" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1130" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I1130" s="5">
+      <c r="C1130" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1130" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1130" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1130" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1130" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1130" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I1130" s="6">
         <v>10</v>
       </c>
-      <c r="J1130" s="5" t="s">
+      <c r="J1130" s="6" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1131" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1131" s="5" t="s">
+      <c r="K1130" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1131" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="B1131" s="5" t="s">
+      <c r="B1131" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1131" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1131" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1131" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1131" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1131" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H1131" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1131" s="5">
+      <c r="C1131" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1131" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1131" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1131" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1131" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H1131" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1131" s="6">
         <v>20</v>
       </c>
-      <c r="J1131" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1132" s="5" t="s">
+      <c r="J1131" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1131" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1132" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="B1132" s="5" t="s">
+      <c r="B1132" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1132" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1132" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1132" s="5">
+      <c r="C1132" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1132" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1132" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="G1132" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1132" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I1132" s="5">
+      <c r="F1132" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G1132" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1132" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I1132" s="6">
         <v>10</v>
       </c>
-      <c r="J1132" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1132" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1133" s="5" t="s">
+      <c r="J1132" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1132" s="6" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1133" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="B1133" s="5" t="s">
+      <c r="B1133" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1133" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1133" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1133" s="5">
+      <c r="C1133" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1133" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1133" s="6">
         <v>1.5</v>
       </c>
-      <c r="F1133" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1133" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1133" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1133" s="5">
+      <c r="F1133" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1133" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1133" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1133" s="6">
         <v>5</v>
       </c>
-      <c r="J1133" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1133" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1134" s="5" t="s">
+      <c r="J1133" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1134" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="B1134" s="5" t="s">
+      <c r="B1134" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1134" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1134" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1134" s="5">
+      <c r="C1134" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1134" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1134" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1134" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1134" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1134" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1134" s="5">
+      <c r="F1134" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1134" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1134" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1134" s="6">
         <v>10</v>
       </c>
-      <c r="J1134" s="5" t="s">
+      <c r="J1134" s="6" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="1135" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1135" s="5" t="s">
+      <c r="K1134" s="6" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1135" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="B1135" s="5" t="s">
+      <c r="B1135" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1135" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1135" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1135" s="5">
+      <c r="C1135" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1135" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1135" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="G1135" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1135" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1135" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1135" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1135" s="5">
+      <c r="F1135" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G1135" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1135" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1135" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1135" s="6">
         <v>0</v>
       </c>
     </row>
@@ -46524,103 +46605,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1139" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1139" s="5" t="s">
+    <row r="1139" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1139" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="B1139" s="5" t="s">
+      <c r="B1139" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1139" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1139" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1139" s="5">
+      <c r="C1139" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1139" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1139" s="6">
         <v>1.3</v>
       </c>
-      <c r="F1139" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1139" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1139" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1139" s="5">
-        <v>0</v>
-      </c>
-      <c r="J1139" s="5" t="s">
+      <c r="F1139" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1139" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1139" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1139" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1139" s="6" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="1140" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1140" s="5" t="s">
+      <c r="K1139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1140" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="B1140" s="5" t="s">
+      <c r="B1140" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1140" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1140" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E1140" s="5">
+      <c r="C1140" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1140" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E1140" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1140" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1140" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H1140" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I1140" s="5">
+      <c r="F1140" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1140" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H1140" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I1140" s="6">
         <v>15</v>
       </c>
-      <c r="J1140" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1140" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1141" s="5" t="s">
+      <c r="J1140" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1141" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="B1141" s="5" t="s">
+      <c r="B1141" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1141" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1141" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1141" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F1141" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1141" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="H1141" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1141" s="5">
+      <c r="C1141" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1141" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1141" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F1141" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1141" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H1141" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1141" s="6">
         <v>20</v>
       </c>
-      <c r="J1141" s="5" t="s">
+      <c r="J1141" s="6" t="s">
         <v>2099</v>
+      </c>
+      <c r="K1141" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -46658,103 +46745,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1143" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1143" s="5" t="s">
+    <row r="1143" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1143" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="B1143" s="5" t="s">
+      <c r="B1143" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1143" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1143" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1143" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1143" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1143" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1143" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1143" s="5">
+      <c r="C1143" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1143" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1143" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1143" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1143" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1143" s="6">
         <v>20</v>
       </c>
-      <c r="J1143" s="5" t="s">
+      <c r="J1143" s="6" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="1144" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1144" s="5" t="s">
+      <c r="K1143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1144" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="B1144" s="5" t="s">
+      <c r="B1144" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1144" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1144" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E1144" s="5">
+      <c r="C1144" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1144" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E1144" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1144" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G1144" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H1144" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1144" s="5">
+      <c r="F1144" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G1144" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H1144" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1144" s="6">
         <v>10</v>
       </c>
-      <c r="J1144" s="5" t="s">
+      <c r="J1144" s="6" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="1145" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1145" s="5" t="s">
+      <c r="K1144" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1145" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="B1145" s="5" t="s">
+      <c r="B1145" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1145" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1145" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E1145" s="5">
+      <c r="C1145" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1145" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E1145" s="6">
         <v>0.7</v>
       </c>
-      <c r="F1145" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1145" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1145" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="I1145" s="5">
+      <c r="F1145" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1145" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1145" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="I1145" s="6">
         <v>20</v>
       </c>
-      <c r="J1145" s="5">
-        <v>0</v>
-      </c>
-      <c r="K1145" s="5">
-        <v>0</v>
+      <c r="J1145" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1145" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Test/Testeo.xlsx
+++ b/Test/Testeo.xlsx
@@ -6749,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2041"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2034" sqref="A2034:XFD2034"/>
+    <sheetView tabSelected="1" topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L807" sqref="L807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35010,7 +35010,7 @@
         <v>2108</v>
       </c>
       <c r="K807" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
